--- a/data/nzd0158/nzd0158.xlsx
+++ b/data/nzd0158/nzd0158.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L352"/>
+  <dimension ref="A1:L359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14382,6 +14382,300 @@
         </is>
       </c>
     </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>381.9636363636364</v>
+      </c>
+      <c r="C353" t="n">
+        <v>374.5415789473685</v>
+      </c>
+      <c r="D353" t="n">
+        <v>376.1625</v>
+      </c>
+      <c r="E353" t="n">
+        <v>380.2133333333333</v>
+      </c>
+      <c r="F353" t="n">
+        <v>370.985</v>
+      </c>
+      <c r="G353" t="n">
+        <v>361.3466666666667</v>
+      </c>
+      <c r="H353" t="n">
+        <v>366.63</v>
+      </c>
+      <c r="I353" t="n">
+        <v>366.0942857142857</v>
+      </c>
+      <c r="J353" t="n">
+        <v>367.8642857142857</v>
+      </c>
+      <c r="K353" t="n">
+        <v>377.42</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>373.430909090909</v>
+      </c>
+      <c r="C354" t="n">
+        <v>373.5084210526316</v>
+      </c>
+      <c r="D354" t="n">
+        <v>369.0225</v>
+      </c>
+      <c r="E354" t="n">
+        <v>373.2388888888889</v>
+      </c>
+      <c r="F354" t="n">
+        <v>369.765</v>
+      </c>
+      <c r="G354" t="n">
+        <v>383.0977777777778</v>
+      </c>
+      <c r="H354" t="n">
+        <v>373.31</v>
+      </c>
+      <c r="I354" t="n">
+        <v>378.6442857142857</v>
+      </c>
+      <c r="J354" t="n">
+        <v>368.0142857142857</v>
+      </c>
+      <c r="K354" t="n">
+        <v>379.6933333333333</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>380.8736363636364</v>
+      </c>
+      <c r="C355" t="n">
+        <v>375.7636842105263</v>
+      </c>
+      <c r="D355" t="n">
+        <v>378.445</v>
+      </c>
+      <c r="E355" t="n">
+        <v>377.0411111111111</v>
+      </c>
+      <c r="F355" t="n">
+        <v>373.23</v>
+      </c>
+      <c r="G355" t="n">
+        <v>361.4022222222222</v>
+      </c>
+      <c r="H355" t="n">
+        <v>368.54</v>
+      </c>
+      <c r="I355" t="n">
+        <v>369.1028571428572</v>
+      </c>
+      <c r="J355" t="n">
+        <v>369.4928571428572</v>
+      </c>
+      <c r="K355" t="n">
+        <v>380.7166666666667</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>372.800909090909</v>
+      </c>
+      <c r="C356" t="n">
+        <v>377.3447368421053</v>
+      </c>
+      <c r="D356" t="n">
+        <v>374.64</v>
+      </c>
+      <c r="E356" t="n">
+        <v>378.6222222222222</v>
+      </c>
+      <c r="F356" t="n">
+        <v>384.67</v>
+      </c>
+      <c r="G356" t="n">
+        <v>382.4744444444444</v>
+      </c>
+      <c r="H356" t="n">
+        <v>379.32</v>
+      </c>
+      <c r="I356" t="n">
+        <v>376.87</v>
+      </c>
+      <c r="J356" t="n">
+        <v>368.88</v>
+      </c>
+      <c r="K356" t="n">
+        <v>379.6033333333333</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>392.2218181818182</v>
+      </c>
+      <c r="C357" t="n">
+        <v>387.1821052631579</v>
+      </c>
+      <c r="D357" t="n">
+        <v>386.135</v>
+      </c>
+      <c r="E357" t="n">
+        <v>393.8011111111111</v>
+      </c>
+      <c r="F357" t="n">
+        <v>386.6</v>
+      </c>
+      <c r="G357" t="n">
+        <v>386.2022222222223</v>
+      </c>
+      <c r="H357" t="n">
+        <v>393.45</v>
+      </c>
+      <c r="I357" t="n">
+        <v>380.6014285714285</v>
+      </c>
+      <c r="J357" t="n">
+        <v>385.8914285714285</v>
+      </c>
+      <c r="K357" t="n">
+        <v>396.2466666666666</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>376.6218181818182</v>
+      </c>
+      <c r="C358" t="n">
+        <v>376.7242105263158</v>
+      </c>
+      <c r="D358" t="n">
+        <v>370.6575</v>
+      </c>
+      <c r="E358" t="n">
+        <v>369.5488888888889</v>
+      </c>
+      <c r="F358" t="n">
+        <v>368.205</v>
+      </c>
+      <c r="G358" t="n">
+        <v>367.5777777777778</v>
+      </c>
+      <c r="H358" t="n">
+        <v>361.24</v>
+      </c>
+      <c r="I358" t="n">
+        <v>368.72</v>
+      </c>
+      <c r="J358" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K358" t="n">
+        <v>374.2833333333333</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>386.26</v>
+      </c>
+      <c r="C359" t="n">
+        <v>381.54</v>
+      </c>
+      <c r="D359" t="n">
+        <v>378.98</v>
+      </c>
+      <c r="E359" t="n">
+        <v>379.35</v>
+      </c>
+      <c r="F359" t="n">
+        <v>377.28</v>
+      </c>
+      <c r="G359" t="n">
+        <v>370.46</v>
+      </c>
+      <c r="H359" t="n">
+        <v>383.03</v>
+      </c>
+      <c r="I359" t="n">
+        <v>374.65</v>
+      </c>
+      <c r="J359" t="n">
+        <v>373.53</v>
+      </c>
+      <c r="K359" t="n">
+        <v>376.86</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14393,7 +14687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B364"/>
+  <dimension ref="A1:B371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18041,6 +18335,76 @@
       </c>
       <c r="B364" t="n">
         <v>-0.39</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18209,28 +18573,28 @@
         <v>0.124</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1421172997152231</v>
+        <v>0.132325177367955</v>
       </c>
       <c r="J2" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K2" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0155206290061507</v>
+        <v>0.01391247916086447</v>
       </c>
       <c r="M2" t="n">
-        <v>6.30679268632076</v>
+        <v>6.301141224517908</v>
       </c>
       <c r="N2" t="n">
-        <v>65.16411591128947</v>
+        <v>64.76293929348567</v>
       </c>
       <c r="O2" t="n">
-        <v>8.072429368615712</v>
+        <v>8.047542438128902</v>
       </c>
       <c r="P2" t="n">
-        <v>379.2143789261135</v>
+        <v>379.3122681290005</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -18286,28 +18650,28 @@
         <v>0.1102</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07546702136244504</v>
+        <v>0.06917711096771136</v>
       </c>
       <c r="J3" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K3" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006595443504799237</v>
+        <v>0.005756913743166003</v>
       </c>
       <c r="M3" t="n">
-        <v>5.207020597902001</v>
+        <v>5.185509880226681</v>
       </c>
       <c r="N3" t="n">
-        <v>43.5213874742682</v>
+        <v>43.02969320031627</v>
       </c>
       <c r="O3" t="n">
-        <v>6.597074160131005</v>
+        <v>6.559702218875204</v>
       </c>
       <c r="P3" t="n">
-        <v>377.6022182435986</v>
+        <v>377.6649664861357</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -18363,28 +18727,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02961954685113732</v>
+        <v>-0.03321954946628151</v>
       </c>
       <c r="J4" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K4" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000911688582807435</v>
+        <v>0.001187100198333568</v>
       </c>
       <c r="M4" t="n">
-        <v>5.382792729114852</v>
+        <v>5.35862285482869</v>
       </c>
       <c r="N4" t="n">
-        <v>48.55224940761142</v>
+        <v>48.11125897304365</v>
       </c>
       <c r="O4" t="n">
-        <v>6.96794441766088</v>
+        <v>6.936228007573256</v>
       </c>
       <c r="P4" t="n">
-        <v>377.8656011787275</v>
+        <v>377.9016920648735</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -18440,28 +18804,28 @@
         <v>0.0977</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04280419518644082</v>
+        <v>0.05051599431469195</v>
       </c>
       <c r="J5" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K5" t="n">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001441294444122776</v>
+        <v>0.00205958610973922</v>
       </c>
       <c r="M5" t="n">
-        <v>6.588987932311706</v>
+        <v>6.551016609439042</v>
       </c>
       <c r="N5" t="n">
-        <v>64.00935856865911</v>
+        <v>63.76360454796109</v>
       </c>
       <c r="O5" t="n">
-        <v>8.000584889160237</v>
+        <v>7.985211615728232</v>
       </c>
       <c r="P5" t="n">
-        <v>375.9196483246569</v>
+        <v>375.8404510419945</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -18517,28 +18881,28 @@
         <v>0.0882</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08507390734393665</v>
+        <v>0.09335285351826064</v>
       </c>
       <c r="J6" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K6" t="n">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006978107850207027</v>
+        <v>0.008587630214489383</v>
       </c>
       <c r="M6" t="n">
-        <v>5.758697304776049</v>
+        <v>5.759759046321626</v>
       </c>
       <c r="N6" t="n">
-        <v>52.27027986873704</v>
+        <v>52.20999444554822</v>
       </c>
       <c r="O6" t="n">
-        <v>7.229818799163437</v>
+        <v>7.225648375443426</v>
       </c>
       <c r="P6" t="n">
-        <v>371.6956202274021</v>
+        <v>371.6107944237731</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -18594,28 +18958,28 @@
         <v>0.0506</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1716574757437392</v>
+        <v>0.1884349220660052</v>
       </c>
       <c r="J7" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K7" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01541556788674081</v>
+        <v>0.01888298115357834</v>
       </c>
       <c r="M7" t="n">
-        <v>7.831477524078908</v>
+        <v>7.85366902498698</v>
       </c>
       <c r="N7" t="n">
-        <v>95.28297884897277</v>
+        <v>95.60827410531813</v>
       </c>
       <c r="O7" t="n">
-        <v>9.761300059365698</v>
+        <v>9.777948358695609</v>
       </c>
       <c r="P7" t="n">
-        <v>364.9821719588246</v>
+        <v>364.8108283485275</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -18671,28 +19035,28 @@
         <v>0.0559</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1636657153104654</v>
+        <v>-0.1213145080155111</v>
       </c>
       <c r="J8" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K8" t="n">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01244580034453024</v>
+        <v>0.00691146376235896</v>
       </c>
       <c r="M8" t="n">
-        <v>7.893292769998684</v>
+        <v>7.937154494772281</v>
       </c>
       <c r="N8" t="n">
-        <v>107.2363880047609</v>
+        <v>109.1518124726358</v>
       </c>
       <c r="O8" t="n">
-        <v>10.35550037442715</v>
+        <v>10.44757447796548</v>
       </c>
       <c r="P8" t="n">
-        <v>369.4680346399158</v>
+        <v>369.0327075957341</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -18748,28 +19112,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08437470798700368</v>
+        <v>-0.05646447503087096</v>
       </c>
       <c r="J9" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K9" t="n">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005632791303108009</v>
+        <v>0.002588353023659007</v>
       </c>
       <c r="M9" t="n">
-        <v>6.140793289269459</v>
+        <v>6.144589177134788</v>
       </c>
       <c r="N9" t="n">
-        <v>63.25160475701439</v>
+        <v>63.26789610380242</v>
       </c>
       <c r="O9" t="n">
-        <v>7.95308774986259</v>
+        <v>7.954111899125031</v>
       </c>
       <c r="P9" t="n">
-        <v>369.3503730267651</v>
+        <v>369.0625255772671</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -18825,28 +19189,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.09311917606970765</v>
+        <v>-0.05978733209858439</v>
       </c>
       <c r="J10" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K10" t="n">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005324572222055401</v>
+        <v>0.002255339565601089</v>
       </c>
       <c r="M10" t="n">
-        <v>7.033874718318864</v>
+        <v>7.027575822454222</v>
       </c>
       <c r="N10" t="n">
-        <v>80.54996370223087</v>
+        <v>80.6717068573449</v>
       </c>
       <c r="O10" t="n">
-        <v>8.974963158823041</v>
+        <v>8.981742974353303</v>
       </c>
       <c r="P10" t="n">
-        <v>366.9515534201735</v>
+        <v>366.6102388717089</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -18902,28 +19266,28 @@
         <v>0.0636</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1355194160012066</v>
+        <v>-0.1227944223357217</v>
       </c>
       <c r="J11" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K11" t="n">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0126784023404084</v>
+        <v>0.01077802810790929</v>
       </c>
       <c r="M11" t="n">
-        <v>6.379477398767866</v>
+        <v>6.319458103987397</v>
       </c>
       <c r="N11" t="n">
-        <v>70.91681163964364</v>
+        <v>70.47956770965931</v>
       </c>
       <c r="O11" t="n">
-        <v>8.42121200538519</v>
+        <v>8.395210998519293</v>
       </c>
       <c r="P11" t="n">
-        <v>381.3588485434605</v>
+        <v>381.2292215932481</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -18960,7 +19324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L352"/>
+  <dimension ref="A1:L359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39076,6 +39440,440 @@
         </is>
       </c>
     </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>-36.72668298147801,175.70209945095286</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>-36.726684608156425,175.70300312435384</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>-36.726605447461644,175.70389449586995</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>-36.726494520320216,175.70477760084668</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>-36.72648149328317,175.7056803914411</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>-36.72647153567404,175.70658687356485</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>-36.72631185214265,175.70746254377406</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>-36.726185884336914,175.70834438146028</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>-36.726011277147386,175.70921779133747</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>-36.72581998619507,175.71009027500574</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>-36.72675939367146,175.70210981240115</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>-36.72669386027104,175.70300437900593</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>-36.72666933405258,175.7039037537289</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>-36.72655675354559,175.70478831824158</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>-36.726492356562396,175.70568246040142</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>-36.726278237609975,175.7065470225918</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>-36.7262527535289,175.70744846254706</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>-36.72607559439366,175.7083135110097</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>-36.72600995376964,175.70921745214096</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>-36.725799788793324,175.710086070872</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>-36.726692742635194,175.70210077455857</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>-36.72667366398411,175.7030016402473</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>-36.72658502433185,175.70389153634125</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>-36.72652282617655,175.70478247549167</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>-36.726461503068336,175.70567658421675</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>-36.72647104196223,175.70658677177929</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>-36.726294954186045,175.70745851755248</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>-36.7261594448822,175.7083369809768</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>-36.725996909046046,175.70921410863315</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>-36.725790697000946,175.7100841783962</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>-36.726765035441026,175.70211057742276</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>-36.726659505373526,175.7029997202411</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>-36.72661907033782,175.70389646997066</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>-36.726508717863624,175.70478004585198</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>-36.726359637559696,175.70565718351892</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>-36.726283777057326,175.70654816461942</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>-36.726199582468105,175.70743579367954</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>-36.72609118689415,175.70831787538617</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>-36.726002315989476,175.70921549449275</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>-36.72580058839721,175.71008623731126</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>-36.72659111750788,175.7020869942867</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>-36.72657140996848,175.70298777391056</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>-36.726516216502056,175.70388156536922</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>-36.7263732760708,175.7047567210229</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>-36.7263424522066,175.705653910505</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>-36.7262506489895,175.70654133484905</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>-36.726074572959256,175.70740600821676</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>-36.726058394936324,175.70830869684465</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>-36.72585223233715,175.70917702647068</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>-36.72565272090004,175.7100554584436</t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>-36.72673081847478,175.70210593761834</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>-36.72666506229826,175.70300047379868</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>-36.72665470456028,175.70390163375535</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>-36.72658967955097,175.70479398854908</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>-36.726506247312756,175.7056851059582</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>-36.72641616095556,175.70657545730427</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>-36.726359537997894,175.70747390574</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>-36.72616280944722,175.70833792272842</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>-36.72599331702069,175.7092131879573</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>-36.725847853870576,175.7100960757282</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>-36.7266445067246,175.7020942338087</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>-36.726621936037176,175.70299462558177</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>-36.72658023731124,175.70389084265133</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>-36.72650222387557,175.70477892750097</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>-36.726425440542016,175.7056697159559</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>-36.72639054718523,175.70657017667943</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>-36.726166759732145,175.7074279731405</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>-36.72611069635089,175.70832333613052</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>-36.72596129127816,175.7092049794096</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>-36.72582496150805,175.71009131062854</t>
+        </is>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0158/nzd0158.xlsx
+++ b/data/nzd0158/nzd0158.xlsx
@@ -18418,7 +18418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18509,35 +18509,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -18596,27 +18601,28 @@
       <c r="P2" t="n">
         <v>379.3122681290005</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.70256330122368 -36.730103535828405, 175.7014466028068 -36.7218680647932)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.7025633012237</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.73010353582841</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.7014466028068</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.7218680647932</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.7020049520152</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.7259858003108</v>
       </c>
     </row>
@@ -18673,27 +18679,28 @@
       <c r="P3" t="n">
         <v>377.6649664861357</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.7034579865585 -36.73003869279079, 175.70234122712506 -36.72180322777454)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.7034579865585</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.73003869279079</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.7023412271251</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.72180322777454</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.7028996068418</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.72592096028266</v>
       </c>
     </row>
@@ -18750,27 +18757,28 @@
       <c r="P4" t="n">
         <v>377.9016920648735</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.7043822606848 -36.72997123467501, 175.70318987572998 -36.72174262434378)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.7043822606848</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.72997123467501</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.70318987573</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.72174262434378</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.7037860682074</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.7258569295094</v>
       </c>
     </row>
@@ -18827,27 +18835,28 @@
       <c r="P5" t="n">
         <v>375.8404510419945</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.70536189173947 -36.72988717464672, 175.70394874238823 -36.721681180715464)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.7053618917395</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.72988717464672</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.7039487423882</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.72168118071546</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.7046553170638</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.72578417768109</v>
       </c>
     </row>
@@ -18904,27 +18913,28 @@
       <c r="P6" t="n">
         <v>371.6107944237731</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.7063095646965 -36.72978486154632, 175.7047500015975 -36.72159602131183)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.7063095646965</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.72978486154632</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.7047500015975</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.72159602131183</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.705529783147</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.72569044142908</v>
       </c>
     </row>
@@ -18981,27 +18991,28 @@
       <c r="P7" t="n">
         <v>364.8108283485275</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.70724894309026 -36.729682752075114, 175.70556405504212 -36.72150996929329)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.7072489430903</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.72968275207511</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.7055640550421</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.72150996929329</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.7064064990662</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.7255963606842</v>
       </c>
     </row>
@@ -19058,27 +19069,28 @@
       <c r="P8" t="n">
         <v>369.0327075957341</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.70823542550588 -36.729555458915364, 175.70629684776003 -36.72141909376728)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.7082354255059</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.72955545891536</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.70629684776</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.72141909376728</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.7072661366329</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.72548727634133</v>
       </c>
     </row>
@@ -19135,27 +19147,28 @@
       <c r="P9" t="n">
         <v>369.0625255772671</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.70924494212008 -36.72940313084237, 175.70698276160843 -36.721320920157005)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.7092449421201</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.72940313084237</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.7069827616084</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.72132092015701</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.7081138518643</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.72536202549969</v>
       </c>
     </row>
@@ -19212,27 +19225,28 @@
       <c r="P10" t="n">
         <v>366.6102388717089</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.71004968577742 -36.72925676140667, 175.70797006962553 -36.721142925989774)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.7100496857774</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.72925676140667</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.7079700696255</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.72114292598977</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.7090098777015</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.72519984369822</v>
       </c>
     </row>
@@ -19289,27 +19303,28 @@
       <c r="P11" t="n">
         <v>381.2292215932481</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.71078828260283 -36.729173165331936, 175.70908757679913 -36.721002493864546)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.7107882826028</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.72917316533194</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.7090875767991</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.72100249386455</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.709937929701</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.72508782959824</v>
       </c>
     </row>

--- a/data/nzd0158/nzd0158.xlsx
+++ b/data/nzd0158/nzd0158.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L359"/>
+  <dimension ref="A1:L364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14676,6 +14676,202 @@
         </is>
       </c>
     </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>387.3327272727273</v>
+      </c>
+      <c r="C360" t="n">
+        <v>379.5442105263158</v>
+      </c>
+      <c r="D360" t="n">
+        <v>379.5075</v>
+      </c>
+      <c r="E360" t="n">
+        <v>383.1044444444445</v>
+      </c>
+      <c r="F360" t="n">
+        <v>376.405</v>
+      </c>
+      <c r="G360" t="n">
+        <v>367.5788888888889</v>
+      </c>
+      <c r="H360" t="n">
+        <v>376.09</v>
+      </c>
+      <c r="I360" t="n">
+        <v>369.2928571428571</v>
+      </c>
+      <c r="J360" t="n">
+        <v>370.0128571428572</v>
+      </c>
+      <c r="K360" t="n">
+        <v>382.6966666666667</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>390.8663636363637</v>
+      </c>
+      <c r="C361" t="n">
+        <v>385.2863157894737</v>
+      </c>
+      <c r="D361" t="n">
+        <v>380.035</v>
+      </c>
+      <c r="E361" t="n">
+        <v>390.8988888888889</v>
+      </c>
+      <c r="F361" t="n">
+        <v>383.91</v>
+      </c>
+      <c r="G361" t="n">
+        <v>378.8777777777778</v>
+      </c>
+      <c r="H361" t="n">
+        <v>385.24</v>
+      </c>
+      <c r="I361" t="n">
+        <v>380.2971428571428</v>
+      </c>
+      <c r="J361" t="n">
+        <v>375.7471428571428</v>
+      </c>
+      <c r="K361" t="n">
+        <v>382.3033333333333</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:17+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="inlineStr"/>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="n">
+        <v>376.345</v>
+      </c>
+      <c r="G362" t="n">
+        <v>364.87</v>
+      </c>
+      <c r="H362" t="n">
+        <v>371.85</v>
+      </c>
+      <c r="I362" t="n">
+        <v>370.98</v>
+      </c>
+      <c r="J362" t="n">
+        <v>371.95</v>
+      </c>
+      <c r="K362" t="n">
+        <v>373.27</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>373.8472727272728</v>
+      </c>
+      <c r="C363" t="n">
+        <v>373.2378947368421</v>
+      </c>
+      <c r="D363" t="n">
+        <v>371.755</v>
+      </c>
+      <c r="E363" t="n">
+        <v>368.4533333333333</v>
+      </c>
+      <c r="F363" t="n">
+        <v>366.56</v>
+      </c>
+      <c r="G363" t="n">
+        <v>372.5966666666667</v>
+      </c>
+      <c r="H363" t="n">
+        <v>363.97</v>
+      </c>
+      <c r="I363" t="n">
+        <v>371.3057142857143</v>
+      </c>
+      <c r="J363" t="n">
+        <v>361.2657142857143</v>
+      </c>
+      <c r="K363" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:25+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>373.7654545454546</v>
+      </c>
+      <c r="C364" t="n">
+        <v>366.2294736842105</v>
+      </c>
+      <c r="D364" t="n">
+        <v>359.9025</v>
+      </c>
+      <c r="E364" t="n">
+        <v>363.1688888888889</v>
+      </c>
+      <c r="F364" t="n">
+        <v>361.755</v>
+      </c>
+      <c r="G364" t="n">
+        <v>362.9977777777778</v>
+      </c>
+      <c r="H364" t="n">
+        <v>361.04</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14687,7 +14883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B371"/>
+  <dimension ref="A1:B376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18405,6 +18601,56 @@
       </c>
       <c r="B371" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -18578,28 +18824,28 @@
         <v>0.124</v>
       </c>
       <c r="I2" t="n">
-        <v>0.132325177367955</v>
+        <v>0.1291213111626039</v>
       </c>
       <c r="J2" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K2" t="n">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01391247916086447</v>
+        <v>0.0134502999555961</v>
       </c>
       <c r="M2" t="n">
-        <v>6.301141224517908</v>
+        <v>6.319072616982257</v>
       </c>
       <c r="N2" t="n">
-        <v>64.76293929348567</v>
+        <v>64.72395587555012</v>
       </c>
       <c r="O2" t="n">
-        <v>8.047542438128902</v>
+        <v>8.045120003800449</v>
       </c>
       <c r="P2" t="n">
-        <v>379.3122681290005</v>
+        <v>379.345182012168</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18656,28 +18902,28 @@
         <v>0.1102</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06917711096771136</v>
+        <v>0.06071977920949533</v>
       </c>
       <c r="J3" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K3" t="n">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005756913743166003</v>
+        <v>0.004481111759817469</v>
       </c>
       <c r="M3" t="n">
-        <v>5.185509880226681</v>
+        <v>5.201421475526153</v>
       </c>
       <c r="N3" t="n">
-        <v>43.02969320031627</v>
+        <v>43.25937662686537</v>
       </c>
       <c r="O3" t="n">
-        <v>6.559702218875204</v>
+        <v>6.577186072087772</v>
       </c>
       <c r="P3" t="n">
-        <v>377.6649664861357</v>
+        <v>377.7511302012517</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18734,28 +18980,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03321954946628151</v>
+        <v>-0.04390540465017337</v>
       </c>
       <c r="J4" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K4" t="n">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001187100198333568</v>
+        <v>0.002082342770549861</v>
       </c>
       <c r="M4" t="n">
-        <v>5.35862285482869</v>
+        <v>5.378398245432343</v>
       </c>
       <c r="N4" t="n">
-        <v>48.11125897304365</v>
+        <v>48.55373860949268</v>
       </c>
       <c r="O4" t="n">
-        <v>6.936228007573256</v>
+        <v>6.968051277759994</v>
       </c>
       <c r="P4" t="n">
-        <v>377.9016920648735</v>
+        <v>378.0110728922047</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18812,28 +19058,28 @@
         <v>0.0977</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05051599431469195</v>
+        <v>0.04865885008748675</v>
       </c>
       <c r="J5" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K5" t="n">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00205958610973922</v>
+        <v>0.001913232166188217</v>
       </c>
       <c r="M5" t="n">
-        <v>6.551016609439042</v>
+        <v>6.60142475556678</v>
       </c>
       <c r="N5" t="n">
-        <v>63.76360454796109</v>
+        <v>64.49931576843944</v>
       </c>
       <c r="O5" t="n">
-        <v>7.985211615728232</v>
+        <v>8.031146603595245</v>
       </c>
       <c r="P5" t="n">
-        <v>375.8404510419945</v>
+        <v>375.8603177430979</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18890,28 +19136,28 @@
         <v>0.0882</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09335285351826064</v>
+        <v>0.09029277208339194</v>
       </c>
       <c r="J6" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K6" t="n">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008587630214489383</v>
+        <v>0.008136658330340274</v>
       </c>
       <c r="M6" t="n">
-        <v>5.759759046321626</v>
+        <v>5.776295509093594</v>
       </c>
       <c r="N6" t="n">
-        <v>52.20999444554822</v>
+        <v>52.37416587282051</v>
       </c>
       <c r="O6" t="n">
-        <v>7.225648375443426</v>
+        <v>7.236999783945037</v>
       </c>
       <c r="P6" t="n">
-        <v>371.6107944237731</v>
+        <v>371.6428710163685</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18968,28 +19214,28 @@
         <v>0.0506</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1884349220660052</v>
+        <v>0.1876056213412584</v>
       </c>
       <c r="J7" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K7" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01888298115357834</v>
+        <v>0.01920936594647449</v>
       </c>
       <c r="M7" t="n">
-        <v>7.85366902498698</v>
+        <v>7.811309614401662</v>
       </c>
       <c r="N7" t="n">
-        <v>95.60827410531813</v>
+        <v>94.63419426677497</v>
       </c>
       <c r="O7" t="n">
-        <v>9.777948358695609</v>
+        <v>9.728010807291231</v>
       </c>
       <c r="P7" t="n">
-        <v>364.8108283485275</v>
+        <v>364.8195139579202</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19046,28 +19292,28 @@
         <v>0.0559</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1213145080155111</v>
+        <v>-0.1041238448470325</v>
       </c>
       <c r="J8" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K8" t="n">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00691146376235896</v>
+        <v>0.005183162360561711</v>
       </c>
       <c r="M8" t="n">
-        <v>7.937154494772281</v>
+        <v>7.936902509076548</v>
       </c>
       <c r="N8" t="n">
-        <v>109.1518124726358</v>
+        <v>109.1080301906387</v>
       </c>
       <c r="O8" t="n">
-        <v>10.44757447796548</v>
+        <v>10.44547893543607</v>
       </c>
       <c r="P8" t="n">
-        <v>369.0327075957341</v>
+        <v>368.8545142125094</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19124,28 +19370,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05646447503087096</v>
+        <v>-0.04316818843785919</v>
       </c>
       <c r="J9" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K9" t="n">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002588353023659007</v>
+        <v>0.001539140411914941</v>
       </c>
       <c r="M9" t="n">
-        <v>6.144589177134788</v>
+        <v>6.129558188344025</v>
       </c>
       <c r="N9" t="n">
-        <v>63.26789610380242</v>
+        <v>63.04692570210255</v>
       </c>
       <c r="O9" t="n">
-        <v>7.954111899125031</v>
+        <v>7.94020942432267</v>
       </c>
       <c r="P9" t="n">
-        <v>369.0625255772671</v>
+        <v>368.92386566624</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19202,28 +19448,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05978733209858439</v>
+        <v>-0.0479530832025564</v>
       </c>
       <c r="J10" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K10" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002255339565601089</v>
+        <v>0.001479926500539741</v>
       </c>
       <c r="M10" t="n">
-        <v>7.027575822454222</v>
+        <v>7.017531328669194</v>
       </c>
       <c r="N10" t="n">
-        <v>80.6717068573449</v>
+        <v>80.27018354956745</v>
       </c>
       <c r="O10" t="n">
-        <v>8.981742974353303</v>
+        <v>8.95936289864226</v>
       </c>
       <c r="P10" t="n">
-        <v>366.6102388717089</v>
+        <v>366.4879772595193</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19280,28 +19526,28 @@
         <v>0.0636</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1227944223357217</v>
+        <v>-0.1269175300973092</v>
       </c>
       <c r="J11" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K11" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01077802810790929</v>
+        <v>0.01173243329799201</v>
       </c>
       <c r="M11" t="n">
-        <v>6.319458103987397</v>
+        <v>6.318815202439569</v>
       </c>
       <c r="N11" t="n">
-        <v>70.47956770965931</v>
+        <v>70.12115865173649</v>
       </c>
       <c r="O11" t="n">
-        <v>8.395210998519293</v>
+        <v>8.373837749308048</v>
       </c>
       <c r="P11" t="n">
-        <v>381.2292215932481</v>
+        <v>381.2719139421628</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19339,7 +19585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L359"/>
+  <dimension ref="A1:L364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39889,6 +40135,288 @@
         </is>
       </c>
     </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>-36.72663490024775,175.70209293117955</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>-36.72663980869105,175.70299704923528</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>-36.726575517398416,175.70389015868614</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>-36.726468722828336,175.70477315817917</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>-36.72643323182863,175.70567119983878</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>-36.72641615108133,175.70657545526856</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>-36.72622815859592,175.7074426024029</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>-36.72615777515402,175.70833651361505</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>-36.72599232133646,175.70921293275245</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>-36.725773105715206,175.71008051673437</t>
+        </is>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>-36.72660325586148,175.70208864023368</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>-36.72658838710475,175.702990076122</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>-36.726570797485564,175.70388947472105</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>-36.726399172708966,175.7047611807514</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>-36.72636640484894,175.70565847237464</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>-36.726315739964335,175.70655475418374</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>-36.72614720764371,175.70742331454807</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>-36.72606106901256,175.70830944532415</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>-36.725941730493574,175.70919996577067</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>-36.72577660028039,175.71008124413504</t>
+        </is>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:17+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="inlineStr"/>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>-36.72643376608829,175.70567130159074</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>-36.72644022447027,175.70658041832675</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>-36.726265670292044,175.70745154017845</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>-36.72614294846989,175.708332363584</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>-36.72597523085767,175.70920855227516</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>-36.725856856817714,175.7100979497139</t>
+        </is>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>-36.726755665056075,175.7021093068025</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>-36.726696282882806,175.70300470752926</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>-36.726644884457606,175.70390021071555</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>-36.72659945523325,175.70479567205615</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>-36.726520894930786,175.7056878956651</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>-36.72637155902751,175.70656626201682</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>-36.72633538542211,175.70746815097604</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>-36.72614008607868,175.70833156239274</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>-36.726069493162974,175.70923271276655</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>-36.72590634341086,175.71010825048006</t>
+        </is>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:25+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>-36.72675639775343,175.70210940615596</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>-36.72675904455177,175.7030132184654</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>-36.72675093709023,175.7039155789204</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>-36.726646608523524,175.70480379250895</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>-36.726563680221595,175.70569604432976</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>-36.72645686255878,175.70658384849824</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>-36.726361307417356,175.70747432733458</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0158/nzd0158.xlsx
+++ b/data/nzd0158/nzd0158.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L364"/>
+  <dimension ref="A1:L365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14872,6 +14872,48 @@
         </is>
       </c>
     </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>389.5618181818182</v>
+      </c>
+      <c r="C365" t="n">
+        <v>384.1142105263158</v>
+      </c>
+      <c r="D365" t="n">
+        <v>379.4775</v>
+      </c>
+      <c r="E365" t="n">
+        <v>375.7688888888889</v>
+      </c>
+      <c r="F365" t="n">
+        <v>372.375</v>
+      </c>
+      <c r="G365" t="n">
+        <v>368.3277777777778</v>
+      </c>
+      <c r="H365" t="n">
+        <v>364.65</v>
+      </c>
+      <c r="I365" t="n">
+        <v>373.01</v>
+      </c>
+      <c r="J365" t="n">
+        <v>366.24</v>
+      </c>
+      <c r="K365" t="n">
+        <v>378.7133333333333</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14883,7 +14925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B376"/>
+  <dimension ref="A1:B378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18651,6 +18693,26 @@
       </c>
       <c r="B376" t="n">
         <v>0.17</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -18824,28 +18886,28 @@
         <v>0.124</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1291213111626039</v>
+        <v>0.1334032676671408</v>
       </c>
       <c r="J2" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K2" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0134502999555961</v>
+        <v>0.01440623207634795</v>
       </c>
       <c r="M2" t="n">
-        <v>6.319072616982257</v>
+        <v>6.31921143989948</v>
       </c>
       <c r="N2" t="n">
-        <v>64.72395587555012</v>
+        <v>64.66844717825759</v>
       </c>
       <c r="O2" t="n">
-        <v>8.045120003800449</v>
+        <v>8.041669427317787</v>
       </c>
       <c r="P2" t="n">
-        <v>379.345182012168</v>
+        <v>379.3014697143989</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18902,28 +18964,28 @@
         <v>0.1102</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06071977920949533</v>
+        <v>0.06371427025363573</v>
       </c>
       <c r="J3" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K3" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004481111759817469</v>
+        <v>0.004956532803365055</v>
       </c>
       <c r="M3" t="n">
-        <v>5.201421475526153</v>
+        <v>5.199422492988678</v>
       </c>
       <c r="N3" t="n">
-        <v>43.25937662686537</v>
+        <v>43.19554268771216</v>
       </c>
       <c r="O3" t="n">
-        <v>6.577186072087772</v>
+        <v>6.572331602080966</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7511302012517</v>
+        <v>377.7205569601604</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18980,28 +19042,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04390540465017337</v>
+        <v>-0.04227986048781999</v>
       </c>
       <c r="J4" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K4" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002082342770549861</v>
+        <v>0.001943341267230947</v>
       </c>
       <c r="M4" t="n">
-        <v>5.378398245432343</v>
+        <v>5.369600682063988</v>
       </c>
       <c r="N4" t="n">
-        <v>48.55373860949268</v>
+        <v>48.42333852982354</v>
       </c>
       <c r="O4" t="n">
-        <v>6.968051277759994</v>
+        <v>6.958687989112857</v>
       </c>
       <c r="P4" t="n">
-        <v>378.0110728922047</v>
+        <v>377.9944019602274</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19058,28 +19120,28 @@
         <v>0.0977</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04865885008748675</v>
+        <v>0.04785270007970468</v>
       </c>
       <c r="J5" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K5" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001913232166188217</v>
+        <v>0.001861776263092363</v>
       </c>
       <c r="M5" t="n">
-        <v>6.60142475556678</v>
+        <v>6.585773006208493</v>
       </c>
       <c r="N5" t="n">
-        <v>64.49931576843944</v>
+        <v>64.30816025487211</v>
       </c>
       <c r="O5" t="n">
-        <v>8.031146603595245</v>
+        <v>8.019236887314909</v>
       </c>
       <c r="P5" t="n">
-        <v>375.8603177430979</v>
+        <v>375.8687420800458</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19136,28 +19198,28 @@
         <v>0.0882</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09029277208339194</v>
+        <v>0.08934914778458969</v>
       </c>
       <c r="J6" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K6" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008136658330340274</v>
+        <v>0.008015937222649594</v>
       </c>
       <c r="M6" t="n">
-        <v>5.776295509093594</v>
+        <v>5.763436455159246</v>
       </c>
       <c r="N6" t="n">
-        <v>52.37416587282051</v>
+        <v>52.22267983762264</v>
       </c>
       <c r="O6" t="n">
-        <v>7.236999783945037</v>
+        <v>7.226526125160182</v>
       </c>
       <c r="P6" t="n">
-        <v>371.6428710163685</v>
+        <v>371.6526956327078</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19214,28 +19276,28 @@
         <v>0.0506</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1876056213412584</v>
+        <v>0.1867963012784649</v>
       </c>
       <c r="J7" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K7" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01920936594647449</v>
+        <v>0.01916370181370741</v>
       </c>
       <c r="M7" t="n">
-        <v>7.811309614401662</v>
+        <v>7.791193049083894</v>
       </c>
       <c r="N7" t="n">
-        <v>94.63419426677497</v>
+        <v>94.34579351025384</v>
       </c>
       <c r="O7" t="n">
-        <v>9.728010807291231</v>
+        <v>9.713176283289306</v>
       </c>
       <c r="P7" t="n">
-        <v>364.8195139579202</v>
+        <v>364.8279255357302</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19292,28 +19354,28 @@
         <v>0.0559</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1041238448470325</v>
+        <v>-0.1050431995559272</v>
       </c>
       <c r="J8" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K8" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005183162360561711</v>
+        <v>0.00530705954025168</v>
       </c>
       <c r="M8" t="n">
-        <v>7.936902509076548</v>
+        <v>7.91719871855013</v>
       </c>
       <c r="N8" t="n">
-        <v>109.1080301906387</v>
+        <v>108.7741797404279</v>
       </c>
       <c r="O8" t="n">
-        <v>10.44547893543607</v>
+        <v>10.42948607268968</v>
       </c>
       <c r="P8" t="n">
-        <v>368.8545142125094</v>
+        <v>368.8641329577067</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19370,28 +19432,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.04316818843785919</v>
+        <v>-0.03992430803302087</v>
       </c>
       <c r="J9" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K9" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001539140411914941</v>
+        <v>0.001323432621869403</v>
       </c>
       <c r="M9" t="n">
-        <v>6.129558188344025</v>
+        <v>6.125470255772061</v>
       </c>
       <c r="N9" t="n">
-        <v>63.04692570210255</v>
+        <v>62.93071994214222</v>
       </c>
       <c r="O9" t="n">
-        <v>7.94020942432267</v>
+        <v>7.932888499288404</v>
       </c>
       <c r="P9" t="n">
-        <v>368.92386566624</v>
+        <v>368.8897943333724</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19448,28 +19510,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0479530832025564</v>
+        <v>-0.04732128637409834</v>
       </c>
       <c r="J10" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K10" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001479926500539741</v>
+        <v>0.001450860999320347</v>
       </c>
       <c r="M10" t="n">
-        <v>7.017531328669194</v>
+        <v>6.998220245934824</v>
       </c>
       <c r="N10" t="n">
-        <v>80.27018354956745</v>
+        <v>80.01844049451428</v>
       </c>
       <c r="O10" t="n">
-        <v>8.95936289864226</v>
+        <v>8.94530270558321</v>
       </c>
       <c r="P10" t="n">
-        <v>366.4879772595193</v>
+        <v>366.4813980251927</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19526,28 +19588,28 @@
         <v>0.0636</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1269175300973092</v>
+        <v>-0.126453814037221</v>
       </c>
       <c r="J11" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K11" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01173243329799201</v>
+        <v>0.01172663573935873</v>
       </c>
       <c r="M11" t="n">
-        <v>6.318815202439569</v>
+        <v>6.30060957347064</v>
       </c>
       <c r="N11" t="n">
-        <v>70.12115865173649</v>
+        <v>69.90017595627603</v>
       </c>
       <c r="O11" t="n">
-        <v>8.373837749308048</v>
+        <v>8.360632509342581</v>
       </c>
       <c r="P11" t="n">
-        <v>381.2719139421628</v>
+        <v>381.2671087365144</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19585,7 +19647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L364"/>
+  <dimension ref="A1:L365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40417,6 +40479,68 @@
         </is>
       </c>
     </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>-36.7266149383144,175.70209022436163</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>-36.72659888351848,175.7029914995054</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>-36.72657578582948,175.70389019758463</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>-36.72653417826241,175.70478443047307</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>-36.72646911626823,175.70567803418388</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>-36.72640949584576,175.70657408320142</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>-36.72632936939583,175.70746671755563</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>-36.726125108742075,175.7083273701959</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>-36.726025607437755,175.709221464352</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>-36.725808495591174,175.71008788321086</t>
+        </is>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0158/nzd0158.xlsx
+++ b/data/nzd0158/nzd0158.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L365"/>
+  <dimension ref="A1:L367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14914,6 +14914,90 @@
         </is>
       </c>
     </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>385.8909090909091</v>
+      </c>
+      <c r="C366" t="n">
+        <v>383.7405263157895</v>
+      </c>
+      <c r="D366" t="n">
+        <v>376.815</v>
+      </c>
+      <c r="E366" t="n">
+        <v>374.2266666666667</v>
+      </c>
+      <c r="F366" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="G366" t="n">
+        <v>362.8333333333333</v>
+      </c>
+      <c r="H366" t="n">
+        <v>349.01</v>
+      </c>
+      <c r="I366" t="n">
+        <v>366.5728571428572</v>
+      </c>
+      <c r="J366" t="n">
+        <v>361.0928571428572</v>
+      </c>
+      <c r="K366" t="n">
+        <v>359.28</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>379.3863636363636</v>
+      </c>
+      <c r="C367" t="n">
+        <v>376.8615789473685</v>
+      </c>
+      <c r="D367" t="n">
+        <v>375.775</v>
+      </c>
+      <c r="E367" t="n">
+        <v>373.4822222222222</v>
+      </c>
+      <c r="F367" t="n">
+        <v>370.18</v>
+      </c>
+      <c r="G367" t="n">
+        <v>362.6044444444445</v>
+      </c>
+      <c r="H367" t="n">
+        <v>360.06</v>
+      </c>
+      <c r="I367" t="n">
+        <v>362.72</v>
+      </c>
+      <c r="J367" t="n">
+        <v>360.57</v>
+      </c>
+      <c r="K367" t="n">
+        <v>371.2433333333333</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14925,7 +15009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B378"/>
+  <dimension ref="A1:B380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18713,6 +18797,26 @@
       </c>
       <c r="B378" t="n">
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -18886,28 +18990,28 @@
         <v>0.124</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1334032676671408</v>
+        <v>0.1332579849418387</v>
       </c>
       <c r="J2" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K2" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01440623207634795</v>
+        <v>0.01454843408965312</v>
       </c>
       <c r="M2" t="n">
-        <v>6.31921143989948</v>
+        <v>6.300281659194894</v>
       </c>
       <c r="N2" t="n">
-        <v>64.66844717825759</v>
+        <v>64.33365653667778</v>
       </c>
       <c r="O2" t="n">
-        <v>8.041669427317787</v>
+        <v>8.020826424794254</v>
       </c>
       <c r="P2" t="n">
-        <v>379.3014697143989</v>
+        <v>379.3029773885511</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18964,28 +19068,28 @@
         <v>0.1102</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06371427025363573</v>
+        <v>0.06485703029110924</v>
       </c>
       <c r="J3" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K3" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004956532803365055</v>
+        <v>0.005193616043877691</v>
       </c>
       <c r="M3" t="n">
-        <v>5.199422492988678</v>
+        <v>5.188296563647563</v>
       </c>
       <c r="N3" t="n">
-        <v>43.19554268771216</v>
+        <v>43.00663027773615</v>
       </c>
       <c r="O3" t="n">
-        <v>6.572331602080966</v>
+        <v>6.557944058753181</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7205569601604</v>
+        <v>377.7088823269733</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19042,28 +19146,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04227986048781999</v>
+        <v>-0.04302660112147958</v>
       </c>
       <c r="J4" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K4" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001943341267230947</v>
+        <v>0.002038977628754712</v>
       </c>
       <c r="M4" t="n">
-        <v>5.369600682063988</v>
+        <v>5.340095472018208</v>
       </c>
       <c r="N4" t="n">
-        <v>48.42333852982354</v>
+        <v>48.12739975741192</v>
       </c>
       <c r="O4" t="n">
-        <v>6.958687989112857</v>
+        <v>6.937391423107963</v>
       </c>
       <c r="P4" t="n">
-        <v>377.9944019602274</v>
+        <v>378.002082717195</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19120,28 +19224,28 @@
         <v>0.0977</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04785270007970468</v>
+        <v>0.04401214044319222</v>
       </c>
       <c r="J5" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K5" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001861776263092363</v>
+        <v>0.001593207578495348</v>
       </c>
       <c r="M5" t="n">
-        <v>6.585773006208493</v>
+        <v>6.567020663795527</v>
       </c>
       <c r="N5" t="n">
-        <v>64.30816025487211</v>
+        <v>63.98220895000025</v>
       </c>
       <c r="O5" t="n">
-        <v>8.019236887314909</v>
+        <v>7.998887982088526</v>
       </c>
       <c r="P5" t="n">
-        <v>375.8687420800458</v>
+        <v>375.9089824482146</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19198,28 +19302,28 @@
         <v>0.0882</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08934914778458969</v>
+        <v>0.08454475261070082</v>
       </c>
       <c r="J6" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K6" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008015937222649594</v>
+        <v>0.007255698805195054</v>
       </c>
       <c r="M6" t="n">
-        <v>5.763436455159246</v>
+        <v>5.752252366060082</v>
       </c>
       <c r="N6" t="n">
-        <v>52.22267983762264</v>
+        <v>52.00878856537668</v>
       </c>
       <c r="O6" t="n">
-        <v>7.226526125160182</v>
+        <v>7.211711902549677</v>
       </c>
       <c r="P6" t="n">
-        <v>371.6526956327078</v>
+        <v>371.7028461837416</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19276,28 +19380,28 @@
         <v>0.0506</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1867963012784649</v>
+        <v>0.1784980474335536</v>
       </c>
       <c r="J7" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K7" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01916370181370741</v>
+        <v>0.01768969146442112</v>
       </c>
       <c r="M7" t="n">
-        <v>7.791193049083894</v>
+        <v>7.785212783695188</v>
       </c>
       <c r="N7" t="n">
-        <v>94.34579351025384</v>
+        <v>94.05556009256085</v>
       </c>
       <c r="O7" t="n">
-        <v>9.713176283289306</v>
+        <v>9.698224584559838</v>
       </c>
       <c r="P7" t="n">
-        <v>364.8279255357302</v>
+        <v>364.9143982567659</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19354,28 +19458,28 @@
         <v>0.0559</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1050431995559272</v>
+        <v>-0.1189361176978871</v>
       </c>
       <c r="J8" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K8" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00530705954025168</v>
+        <v>0.006814141865154943</v>
       </c>
       <c r="M8" t="n">
-        <v>7.91719871855013</v>
+        <v>7.944654521900415</v>
       </c>
       <c r="N8" t="n">
-        <v>108.7741797404279</v>
+        <v>109.1101622747942</v>
       </c>
       <c r="O8" t="n">
-        <v>10.42948607268968</v>
+        <v>10.44558099268749</v>
       </c>
       <c r="P8" t="n">
-        <v>368.8641329577067</v>
+        <v>369.0098325687424</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19432,28 +19536,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03992430803302087</v>
+        <v>-0.04387687788316261</v>
       </c>
       <c r="J9" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K9" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001323432621869403</v>
+        <v>0.001616087989778969</v>
       </c>
       <c r="M9" t="n">
-        <v>6.125470255772061</v>
+        <v>6.107871736484833</v>
       </c>
       <c r="N9" t="n">
-        <v>62.93071994214222</v>
+        <v>62.61791303907225</v>
       </c>
       <c r="O9" t="n">
-        <v>7.932888499288404</v>
+        <v>7.913148111786627</v>
       </c>
       <c r="P9" t="n">
-        <v>368.8897943333724</v>
+        <v>368.9314310798909</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19510,28 +19614,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04732128637409834</v>
+        <v>-0.05288750686684997</v>
       </c>
       <c r="J10" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K10" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001450860999320347</v>
+        <v>0.001832973705180208</v>
       </c>
       <c r="M10" t="n">
-        <v>6.998220245934824</v>
+        <v>6.983341834818013</v>
       </c>
       <c r="N10" t="n">
-        <v>80.01844049451428</v>
+        <v>79.63518075104254</v>
       </c>
       <c r="O10" t="n">
-        <v>8.94530270558321</v>
+        <v>8.923854590424618</v>
       </c>
       <c r="P10" t="n">
-        <v>366.4813980251927</v>
+        <v>366.5395083550807</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19588,28 +19692,28 @@
         <v>0.0636</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.126453814037221</v>
+        <v>-0.1426334559948939</v>
       </c>
       <c r="J11" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K11" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01172663573935873</v>
+        <v>0.01481384877590497</v>
       </c>
       <c r="M11" t="n">
-        <v>6.30060957347064</v>
+        <v>6.356572846671639</v>
       </c>
       <c r="N11" t="n">
-        <v>69.90017595627603</v>
+        <v>70.68778840797765</v>
       </c>
       <c r="O11" t="n">
-        <v>8.360632509342581</v>
+        <v>8.40760301203486</v>
       </c>
       <c r="P11" t="n">
-        <v>381.2671087365144</v>
+        <v>381.4351407341357</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19647,7 +19751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L365"/>
+  <dimension ref="A1:L367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24952,7 +25056,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>-36.726187139771596,175.7083447328604</t>
+          <t>-36.72618713977159,175.7083447328604</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -40541,6 +40645,130 @@
         </is>
       </c>
     </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>-36.7266478120039,175.70209468200153</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>-36.72660222992788,175.70299195330085</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>-36.726599609086115,175.70389364982705</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>-36.726547939568135,175.70478680035535</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>-36.726494716209096,175.70568290980682</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>-36.726458323945764,175.70658414978342</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>-36.726467737992294,175.7074996862892</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>-36.72618167863073,175.70834320427</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>-36.7260710181982,175.70923310365083</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>-36.72598115078883,175.71012382186456</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>-36.726706061445086,175.70210258058003</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>-36.726663832139344,175.70300030698056</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>-36.72660891469614,175.7038949983093</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>-36.7265545822733,175.70478794431907</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>-36.7264886612666,175.70568175661566</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>-36.726460358038466,175.70658456913984</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>-36.726369977572624,175.70747639314837</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>-36.72621553770353,175.7083526815344</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>-36.726075631114625,175.7092342859951</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>-36.72587486271177,175.71010169768692</t>
+        </is>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0158/nzd0158.xlsx
+++ b/data/nzd0158/nzd0158.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L367"/>
+  <dimension ref="A1:L368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14998,6 +14998,48 @@
         </is>
       </c>
     </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>383.77</v>
+      </c>
+      <c r="C368" t="n">
+        <v>378.2068421052632</v>
+      </c>
+      <c r="D368" t="n">
+        <v>383.75</v>
+      </c>
+      <c r="E368" t="n">
+        <v>379.3722222222222</v>
+      </c>
+      <c r="F368" t="n">
+        <v>368.25</v>
+      </c>
+      <c r="G368" t="n">
+        <v>355.1744444444445</v>
+      </c>
+      <c r="H368" t="n">
+        <v>355.83</v>
+      </c>
+      <c r="I368" t="n">
+        <v>365.7485714285714</v>
+      </c>
+      <c r="J368" t="n">
+        <v>354.3685714285714</v>
+      </c>
+      <c r="K368" t="n">
+        <v>364.1433333333333</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15009,7 +15051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B380"/>
+  <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18817,6 +18859,16 @@
       </c>
       <c r="B380" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>-0.88</v>
       </c>
     </row>
   </sheetData>
@@ -18990,28 +19042,28 @@
         <v>0.124</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1332579849418387</v>
+        <v>0.1338755063108135</v>
       </c>
       <c r="J2" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K2" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01454843408965312</v>
+        <v>0.01477558581721361</v>
       </c>
       <c r="M2" t="n">
-        <v>6.300281659194894</v>
+        <v>6.28370065462918</v>
       </c>
       <c r="N2" t="n">
-        <v>64.33365653667778</v>
+        <v>64.13822193824524</v>
       </c>
       <c r="O2" t="n">
-        <v>8.020826424794254</v>
+        <v>8.0086342117895</v>
       </c>
       <c r="P2" t="n">
-        <v>379.3029773885511</v>
+        <v>379.2966415275463</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19068,28 +19120,28 @@
         <v>0.1102</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06485703029110924</v>
+        <v>0.06413142941432848</v>
       </c>
       <c r="J3" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K3" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005193616043877691</v>
+        <v>0.005111388431155328</v>
       </c>
       <c r="M3" t="n">
-        <v>5.188296563647563</v>
+        <v>5.176048853595355</v>
       </c>
       <c r="N3" t="n">
-        <v>43.00663027773615</v>
+        <v>42.87817872632883</v>
       </c>
       <c r="O3" t="n">
-        <v>6.557944058753181</v>
+        <v>6.548143151026009</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7088823269733</v>
+        <v>377.7163278753373</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19146,28 +19198,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04302660112147958</v>
+        <v>-0.03881527331654108</v>
       </c>
       <c r="J4" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K4" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002038977628754712</v>
+        <v>0.001665887924170217</v>
       </c>
       <c r="M4" t="n">
-        <v>5.340095472018208</v>
+        <v>5.344757230324626</v>
       </c>
       <c r="N4" t="n">
-        <v>48.12739975741192</v>
+        <v>48.1228677243895</v>
       </c>
       <c r="O4" t="n">
-        <v>6.937391423107963</v>
+        <v>6.937064777295185</v>
       </c>
       <c r="P4" t="n">
-        <v>378.002082717195</v>
+        <v>377.9586760232542</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19224,28 +19276,28 @@
         <v>0.0977</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04401214044319222</v>
+        <v>0.0453775608895089</v>
       </c>
       <c r="J5" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K5" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001593207578495348</v>
+        <v>0.001703319886993793</v>
       </c>
       <c r="M5" t="n">
-        <v>6.567020663795527</v>
+        <v>6.553565797793622</v>
       </c>
       <c r="N5" t="n">
-        <v>63.98220895000025</v>
+        <v>63.80504878980066</v>
       </c>
       <c r="O5" t="n">
-        <v>7.998887982088526</v>
+        <v>7.987806256401107</v>
       </c>
       <c r="P5" t="n">
-        <v>375.9089824482146</v>
+        <v>375.8946396081031</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19302,28 +19354,28 @@
         <v>0.0882</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08454475261070082</v>
+        <v>0.08126891103177951</v>
       </c>
       <c r="J6" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K6" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007255698805195054</v>
+        <v>0.006735833034616556</v>
       </c>
       <c r="M6" t="n">
-        <v>5.752252366060082</v>
+        <v>5.750979928009808</v>
       </c>
       <c r="N6" t="n">
-        <v>52.00878856537668</v>
+        <v>51.94726759008867</v>
       </c>
       <c r="O6" t="n">
-        <v>7.211711902549677</v>
+        <v>7.207445288733635</v>
       </c>
       <c r="P6" t="n">
-        <v>371.7028461837416</v>
+        <v>371.7371327381048</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19380,28 +19432,28 @@
         <v>0.0506</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1784980474335536</v>
+        <v>0.1699452129686689</v>
       </c>
       <c r="J7" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K7" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01768969146442112</v>
+        <v>0.01605356854935613</v>
       </c>
       <c r="M7" t="n">
-        <v>7.785212783695188</v>
+        <v>7.804884760274623</v>
       </c>
       <c r="N7" t="n">
-        <v>94.05556009256085</v>
+        <v>94.39558330476177</v>
       </c>
       <c r="O7" t="n">
-        <v>9.698224584559838</v>
+        <v>9.715738947952532</v>
       </c>
       <c r="P7" t="n">
-        <v>364.9143982567659</v>
+        <v>365.0037568249751</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19458,28 +19510,28 @@
         <v>0.0559</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1189361176978871</v>
+        <v>-0.1249556752057628</v>
       </c>
       <c r="J8" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K8" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006814141865154943</v>
+        <v>0.00754041241362613</v>
       </c>
       <c r="M8" t="n">
-        <v>7.944654521900415</v>
+        <v>7.953115546013231</v>
       </c>
       <c r="N8" t="n">
-        <v>109.1101622747942</v>
+        <v>109.0849969279139</v>
       </c>
       <c r="O8" t="n">
-        <v>10.44558099268749</v>
+        <v>10.44437633025131</v>
       </c>
       <c r="P8" t="n">
-        <v>369.0098325687424</v>
+        <v>369.0731443839886</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19536,28 +19588,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.04387687788316261</v>
+        <v>-0.04512988274388241</v>
       </c>
       <c r="J9" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K9" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001616087989778969</v>
+        <v>0.001719946402359618</v>
       </c>
       <c r="M9" t="n">
-        <v>6.107871736484833</v>
+        <v>6.095243305305236</v>
       </c>
       <c r="N9" t="n">
-        <v>62.61791303907225</v>
+        <v>62.43227726990202</v>
       </c>
       <c r="O9" t="n">
-        <v>7.913148111786627</v>
+        <v>7.901409827992851</v>
       </c>
       <c r="P9" t="n">
-        <v>368.9314310798909</v>
+        <v>368.9446608970762</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19614,28 +19666,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05288750686684997</v>
+        <v>-0.05964837914263118</v>
       </c>
       <c r="J10" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K10" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001832973705180208</v>
+        <v>0.00233509371617413</v>
       </c>
       <c r="M10" t="n">
-        <v>6.983341834818013</v>
+        <v>6.997221042721117</v>
       </c>
       <c r="N10" t="n">
-        <v>79.63518075104254</v>
+        <v>79.74795668621493</v>
       </c>
       <c r="O10" t="n">
-        <v>8.923854590424618</v>
+        <v>8.93017114540449</v>
       </c>
       <c r="P10" t="n">
-        <v>366.5395083550807</v>
+        <v>366.6102657833227</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19692,28 +19744,28 @@
         <v>0.0636</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1426334559948939</v>
+        <v>-0.1512334625448757</v>
       </c>
       <c r="J11" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K11" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01481384877590497</v>
+        <v>0.01660040436309584</v>
       </c>
       <c r="M11" t="n">
-        <v>6.356572846671639</v>
+        <v>6.387455160307852</v>
       </c>
       <c r="N11" t="n">
-        <v>70.68778840797765</v>
+        <v>71.04082322754915</v>
       </c>
       <c r="O11" t="n">
-        <v>8.40760301203486</v>
+        <v>8.428571837953875</v>
       </c>
       <c r="P11" t="n">
-        <v>381.4351407341357</v>
+        <v>381.5246969246119</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19751,7 +19803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L367"/>
+  <dimension ref="A1:L368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40769,6 +40821,68 @@
         </is>
       </c>
     </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>-36.726666805148206,175.70209725745536</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>-36.72665178506583,175.702998673314</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>-36.726537556772,175.7038846577945</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>-36.726502025585845,175.70477889335282</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>-36.72650584661803,175.70568502964403</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>-36.72652638705579,175.7065981819514</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>-36.72640740079309,175.7074853098813</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>-36.72618892248883,175.7083452318486</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>-36.726130343326844,175.70924830938577</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>-36.72593794256903,175.7101148279371</t>
+        </is>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0158/nzd0158.xlsx
+++ b/data/nzd0158/nzd0158.xlsx
@@ -15051,7 +15051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B381"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18869,6 +18869,16 @@
       </c>
       <c r="B381" t="n">
         <v>-0.88</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0158/nzd0158.xlsx
+++ b/data/nzd0158/nzd0158.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L368"/>
+  <dimension ref="A1:L369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15040,6 +15040,48 @@
         </is>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>385.5318181818182</v>
+      </c>
+      <c r="C369" t="n">
+        <v>380.4647368421053</v>
+      </c>
+      <c r="D369" t="n">
+        <v>390.03</v>
+      </c>
+      <c r="E369" t="n">
+        <v>388.9777777777778</v>
+      </c>
+      <c r="F369" t="n">
+        <v>379.09</v>
+      </c>
+      <c r="G369" t="n">
+        <v>371.8855555555555</v>
+      </c>
+      <c r="H369" t="n">
+        <v>377.09</v>
+      </c>
+      <c r="I369" t="n">
+        <v>375.7128571428572</v>
+      </c>
+      <c r="J369" t="n">
+        <v>375.9928571428572</v>
+      </c>
+      <c r="K369" t="n">
+        <v>389.2466666666666</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15051,7 +15093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B382"/>
+  <dimension ref="A1:B383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18879,6 +18921,16 @@
       </c>
       <c r="B382" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
@@ -19052,28 +19104,28 @@
         <v>0.124</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1338755063108135</v>
+        <v>0.1355550295718091</v>
       </c>
       <c r="J2" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K2" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01477558581721361</v>
+        <v>0.01523598502133117</v>
       </c>
       <c r="M2" t="n">
-        <v>6.28370065462918</v>
+        <v>6.272056791885746</v>
       </c>
       <c r="N2" t="n">
-        <v>64.13822193824524</v>
+        <v>63.96389789333168</v>
       </c>
       <c r="O2" t="n">
-        <v>8.0086342117895</v>
+        <v>7.997743300039811</v>
       </c>
       <c r="P2" t="n">
-        <v>379.2966415275463</v>
+        <v>379.2793227127415</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19130,28 +19182,28 @@
         <v>0.1102</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06413142941432848</v>
+        <v>0.06479261526863674</v>
       </c>
       <c r="J3" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K3" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005111388431155328</v>
+        <v>0.005250759995441667</v>
       </c>
       <c r="M3" t="n">
-        <v>5.176048853595355</v>
+        <v>5.163308017757293</v>
       </c>
       <c r="N3" t="n">
-        <v>42.87817872632883</v>
+        <v>42.74978879907077</v>
       </c>
       <c r="O3" t="n">
-        <v>6.548143151026009</v>
+        <v>6.538332264352338</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7163278753373</v>
+        <v>377.709509365777</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19208,28 +19260,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03881527331654108</v>
+        <v>-0.03078365970174601</v>
       </c>
       <c r="J4" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001665887924170217</v>
+        <v>0.001044045549725037</v>
       </c>
       <c r="M4" t="n">
-        <v>5.344757230324626</v>
+        <v>5.368744746131649</v>
       </c>
       <c r="N4" t="n">
-        <v>48.1228677243895</v>
+        <v>48.49632108658864</v>
       </c>
       <c r="O4" t="n">
-        <v>6.937064777295185</v>
+        <v>6.963930002993183</v>
       </c>
       <c r="P4" t="n">
-        <v>377.9586760232542</v>
+        <v>377.8754798393436</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19286,28 +19338,28 @@
         <v>0.0977</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0453775608895089</v>
+        <v>0.05238636682809215</v>
       </c>
       <c r="J5" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K5" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001703319886993793</v>
+        <v>0.002267756937148979</v>
       </c>
       <c r="M5" t="n">
-        <v>6.553565797793622</v>
+        <v>6.566571477392939</v>
       </c>
       <c r="N5" t="n">
-        <v>63.80504878980066</v>
+        <v>64.03561079102272</v>
       </c>
       <c r="O5" t="n">
-        <v>7.987806256401107</v>
+        <v>8.002225364923355</v>
       </c>
       <c r="P5" t="n">
-        <v>375.8946396081031</v>
+        <v>375.8206375926378</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19364,28 +19416,28 @@
         <v>0.0882</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08126891103177951</v>
+        <v>0.08431215422746925</v>
       </c>
       <c r="J6" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K6" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006735833034616556</v>
+        <v>0.007278317156399372</v>
       </c>
       <c r="M6" t="n">
-        <v>5.750979928009808</v>
+        <v>5.750174573215219</v>
       </c>
       <c r="N6" t="n">
-        <v>51.94726759008867</v>
+        <v>51.8728698611467</v>
       </c>
       <c r="O6" t="n">
-        <v>7.207445288733635</v>
+        <v>7.202282267527891</v>
       </c>
       <c r="P6" t="n">
-        <v>371.7371327381048</v>
+        <v>371.7051140928381</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19442,28 +19494,28 @@
         <v>0.0506</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1699452129686689</v>
+        <v>0.1714089436842214</v>
       </c>
       <c r="J7" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K7" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01605356854935613</v>
+        <v>0.01642401553950945</v>
       </c>
       <c r="M7" t="n">
-        <v>7.804884760274623</v>
+        <v>7.788484268740826</v>
       </c>
       <c r="N7" t="n">
-        <v>94.39558330476177</v>
+        <v>94.12435797243644</v>
       </c>
       <c r="O7" t="n">
-        <v>9.715738947952532</v>
+        <v>9.701770867858942</v>
       </c>
       <c r="P7" t="n">
-        <v>365.0037568249751</v>
+        <v>364.988384531244</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19520,28 +19572,28 @@
         <v>0.0559</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1249556752057628</v>
+        <v>-0.1182259363643034</v>
       </c>
       <c r="J8" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K8" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00754041241362613</v>
+        <v>0.006773035324805665</v>
       </c>
       <c r="M8" t="n">
-        <v>7.953115546013231</v>
+        <v>7.961039631403445</v>
       </c>
       <c r="N8" t="n">
-        <v>109.0849969279139</v>
+        <v>109.1367783604508</v>
       </c>
       <c r="O8" t="n">
-        <v>10.44437633025131</v>
+        <v>10.44685495067539</v>
       </c>
       <c r="P8" t="n">
-        <v>369.0731443839886</v>
+        <v>369.0019927445812</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19598,28 +19650,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.04512988274388241</v>
+        <v>-0.0402570565114912</v>
       </c>
       <c r="J9" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001719946402359618</v>
+        <v>0.001373398931976855</v>
       </c>
       <c r="M9" t="n">
-        <v>6.095243305305236</v>
+        <v>6.09988355514603</v>
       </c>
       <c r="N9" t="n">
-        <v>62.43227726990202</v>
+        <v>62.43249727090897</v>
       </c>
       <c r="O9" t="n">
-        <v>7.901409827992851</v>
+        <v>7.901423749610507</v>
       </c>
       <c r="P9" t="n">
-        <v>368.9446608970762</v>
+        <v>368.892942929676</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19676,28 +19728,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05964837914263118</v>
+        <v>-0.05279750066821906</v>
       </c>
       <c r="J10" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K10" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00233509371617413</v>
+        <v>0.001834041456594271</v>
       </c>
       <c r="M10" t="n">
-        <v>6.997221042721117</v>
+        <v>7.007367825661387</v>
       </c>
       <c r="N10" t="n">
-        <v>79.74795668621493</v>
+        <v>79.86922500580997</v>
       </c>
       <c r="O10" t="n">
-        <v>8.93017114540449</v>
+        <v>8.93695837552184</v>
       </c>
       <c r="P10" t="n">
-        <v>366.6102657833227</v>
+        <v>366.5382092795755</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19754,28 +19806,28 @@
         <v>0.0636</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1512334625448757</v>
+        <v>-0.1438529921626396</v>
       </c>
       <c r="J11" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K11" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01660040436309584</v>
+        <v>0.01505572730970017</v>
       </c>
       <c r="M11" t="n">
-        <v>6.387455160307852</v>
+        <v>6.396662279780791</v>
       </c>
       <c r="N11" t="n">
-        <v>71.04082322754915</v>
+        <v>71.24014869073388</v>
       </c>
       <c r="O11" t="n">
-        <v>8.428571837953875</v>
+        <v>8.440387946696163</v>
       </c>
       <c r="P11" t="n">
-        <v>381.5246969246119</v>
+        <v>381.4474634648013</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19813,7 +19865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L368"/>
+  <dimension ref="A1:L369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40893,6 +40945,68 @@
         </is>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>-36.72665102773131,175.70209511805126</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>-36.72663156521226,175.70299593136326</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>-36.72648136520119,175.70387651506067</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>-36.72641631485555,175.70476413284777</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>-36.726409323709,175.70566664643925</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>-36.72637787853922,175.7065675648684</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>-36.7262193114976,175.70744049443837</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>-36.72610135591606,175.70832072171973</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>-36.72593956267463,175.7091994101356</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>-36.72571491231879,175.71006840367482</t>
+        </is>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0158/nzd0158.xlsx
+++ b/data/nzd0158/nzd0158.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L369"/>
+  <dimension ref="A1:L370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15082,6 +15082,48 @@
         </is>
       </c>
     </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>381.0463636363637</v>
+      </c>
+      <c r="C370" t="n">
+        <v>384.2363157894737</v>
+      </c>
+      <c r="D370" t="n">
+        <v>378.755</v>
+      </c>
+      <c r="E370" t="n">
+        <v>377.5188888888889</v>
+      </c>
+      <c r="F370" t="n">
+        <v>380.9</v>
+      </c>
+      <c r="G370" t="n">
+        <v>377.3277777777778</v>
+      </c>
+      <c r="H370" t="n">
+        <v>361.52</v>
+      </c>
+      <c r="I370" t="n">
+        <v>366.9871428571428</v>
+      </c>
+      <c r="J370" t="n">
+        <v>361.3071428571428</v>
+      </c>
+      <c r="K370" t="n">
+        <v>371.6333333333333</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15093,7 +15135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B383"/>
+  <dimension ref="A1:B384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18931,6 +18973,16 @@
       </c>
       <c r="B383" t="n">
         <v>-0.2</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -19104,28 +19156,28 @@
         <v>0.124</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1355550295718091</v>
+        <v>0.1344601244683979</v>
       </c>
       <c r="J2" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K2" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01523598502133117</v>
+        <v>0.01509126277827666</v>
       </c>
       <c r="M2" t="n">
-        <v>6.272056791885746</v>
+        <v>6.258725117227675</v>
       </c>
       <c r="N2" t="n">
-        <v>63.96389789333168</v>
+        <v>63.77735680913185</v>
       </c>
       <c r="O2" t="n">
-        <v>7.997743300039811</v>
+        <v>7.986072677426111</v>
       </c>
       <c r="P2" t="n">
-        <v>379.2793227127415</v>
+        <v>379.29069101943</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19182,28 +19234,28 @@
         <v>0.1102</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06479261526863674</v>
+        <v>0.06776716361377334</v>
       </c>
       <c r="J3" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K3" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005250759995441667</v>
+        <v>0.005770025324455585</v>
       </c>
       <c r="M3" t="n">
-        <v>5.163308017757293</v>
+        <v>5.161552343144709</v>
       </c>
       <c r="N3" t="n">
-        <v>42.74978879907077</v>
+        <v>42.6895043510331</v>
       </c>
       <c r="O3" t="n">
-        <v>6.538332264352338</v>
+        <v>6.533720559607144</v>
       </c>
       <c r="P3" t="n">
-        <v>377.709509365777</v>
+        <v>377.678623580383</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19260,28 +19312,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03078365970174601</v>
+        <v>-0.02974395030733483</v>
       </c>
       <c r="J4" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K4" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001044045549725037</v>
+        <v>0.0009811493313149899</v>
       </c>
       <c r="M4" t="n">
-        <v>5.368744746131649</v>
+        <v>5.357458183328216</v>
       </c>
       <c r="N4" t="n">
-        <v>48.49632108658864</v>
+        <v>48.3561933990563</v>
       </c>
       <c r="O4" t="n">
-        <v>6.963930002993183</v>
+        <v>6.95386176157222</v>
       </c>
       <c r="P4" t="n">
-        <v>377.8754798393436</v>
+        <v>377.8646361163943</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19338,28 +19390,28 @@
         <v>0.0977</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05238636682809215</v>
+        <v>0.05257936450060461</v>
       </c>
       <c r="J5" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K5" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002267756937148979</v>
+        <v>0.002298737237982795</v>
       </c>
       <c r="M5" t="n">
-        <v>6.566571477392939</v>
+        <v>6.547737377802648</v>
       </c>
       <c r="N5" t="n">
-        <v>64.03561079102272</v>
+        <v>63.84362777033079</v>
       </c>
       <c r="O5" t="n">
-        <v>8.002225364923355</v>
+        <v>7.990220758547963</v>
       </c>
       <c r="P5" t="n">
-        <v>375.8206375926378</v>
+        <v>375.8185854567643</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19416,28 +19468,28 @@
         <v>0.0882</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08431215422746925</v>
+        <v>0.08839490846754137</v>
       </c>
       <c r="J6" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K6" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007278317156399372</v>
+        <v>0.008021225490759565</v>
       </c>
       <c r="M6" t="n">
-        <v>5.750174573215219</v>
+        <v>5.754793331121756</v>
       </c>
       <c r="N6" t="n">
-        <v>51.8728698611467</v>
+        <v>51.86236116393912</v>
       </c>
       <c r="O6" t="n">
-        <v>7.202282267527891</v>
+        <v>7.20155269118675</v>
       </c>
       <c r="P6" t="n">
-        <v>371.7051140928381</v>
+        <v>371.6618506874859</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19494,28 +19546,28 @@
         <v>0.0506</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1714089436842214</v>
+        <v>0.1761114931424964</v>
       </c>
       <c r="J7" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K7" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01642401553950945</v>
+        <v>0.01739595545269712</v>
       </c>
       <c r="M7" t="n">
-        <v>7.788484268740826</v>
+        <v>7.788499012120679</v>
       </c>
       <c r="N7" t="n">
-        <v>94.12435797243644</v>
+        <v>94.02316277978565</v>
       </c>
       <c r="O7" t="n">
-        <v>9.701770867858942</v>
+        <v>9.696554170414645</v>
       </c>
       <c r="P7" t="n">
-        <v>364.988384531244</v>
+        <v>364.9386458758739</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19572,28 +19624,28 @@
         <v>0.0559</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1182259363643034</v>
+        <v>-0.1208583061383191</v>
       </c>
       <c r="J8" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K8" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006773035324805665</v>
+        <v>0.007116407751209031</v>
       </c>
       <c r="M8" t="n">
-        <v>7.961039631403445</v>
+        <v>7.950796766711005</v>
       </c>
       <c r="N8" t="n">
-        <v>109.1367783604508</v>
+        <v>108.859583797498</v>
       </c>
       <c r="O8" t="n">
-        <v>10.44685495067539</v>
+        <v>10.43357962530109</v>
       </c>
       <c r="P8" t="n">
-        <v>369.0019927445812</v>
+        <v>369.030023617147</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19650,28 +19702,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0402570565114912</v>
+        <v>-0.0407819637218632</v>
       </c>
       <c r="J9" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K9" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001373398931976855</v>
+        <v>0.001418449911060771</v>
       </c>
       <c r="M9" t="n">
-        <v>6.09988355514603</v>
+        <v>6.083408685234509</v>
       </c>
       <c r="N9" t="n">
-        <v>62.43249727090897</v>
+        <v>62.23781328658701</v>
       </c>
       <c r="O9" t="n">
-        <v>7.901423749610507</v>
+        <v>7.889094579645183</v>
       </c>
       <c r="P9" t="n">
-        <v>368.892942929676</v>
+        <v>368.8985538867899</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19728,28 +19780,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05279750066821906</v>
+        <v>-0.0552191992457409</v>
       </c>
       <c r="J10" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K10" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001834041456594271</v>
+        <v>0.002018179876618453</v>
       </c>
       <c r="M10" t="n">
-        <v>7.007367825661387</v>
+        <v>6.998078426974629</v>
       </c>
       <c r="N10" t="n">
-        <v>79.86922500580997</v>
+        <v>79.66545131896395</v>
       </c>
       <c r="O10" t="n">
-        <v>8.93695837552184</v>
+        <v>8.925550477083414</v>
       </c>
       <c r="P10" t="n">
-        <v>366.5382092795755</v>
+        <v>366.5638544061524</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19806,28 +19858,28 @@
         <v>0.0636</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1438529921626396</v>
+        <v>-0.1476962405399496</v>
       </c>
       <c r="J11" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K11" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01505572730970017</v>
+        <v>0.0159406987964047</v>
       </c>
       <c r="M11" t="n">
-        <v>6.396662279780791</v>
+        <v>6.399151982184726</v>
       </c>
       <c r="N11" t="n">
-        <v>71.24014869073388</v>
+        <v>71.13060984679478</v>
       </c>
       <c r="O11" t="n">
-        <v>8.440387946696163</v>
+        <v>8.43389648067812</v>
       </c>
       <c r="P11" t="n">
-        <v>381.4474634648013</v>
+        <v>381.487952168622</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19865,7 +19917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L369"/>
+  <dimension ref="A1:L370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41007,6 +41059,68 @@
         </is>
       </c>
     </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>-36.726691195829645,175.70210056481284</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>-36.72659779004385,175.70299135122295</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>-36.72658225054421,175.70389113439006</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>-36.726518562947774,175.70478174130668</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>-36.7263932068758,175.7056635769241</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>-36.7263295145255,175.70655759398863</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>-36.72635706081066,175.70747331550757</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>-36.72617803787014,175.70834218520986</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>-36.72606912765866,175.70923261908354</t>
+        </is>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>-36.725871397761765,175.71010097644853</t>
+        </is>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0158/nzd0158.xlsx
+++ b/data/nzd0158/nzd0158.xlsx
@@ -19147,13 +19147,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>0.097</v>
+        <v>0.0795</v>
       </c>
       <c r="H2" t="n">
-        <v>0.124</v>
+        <v>0.1076</v>
       </c>
       <c r="I2" t="n">
         <v>0.1344518429221646</v>
@@ -19225,13 +19225,13 @@
         <v>0.8888581677237131</v>
       </c>
       <c r="F3" t="n">
-        <v>0.095</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0872</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1102</v>
+        <v>0.109</v>
       </c>
       <c r="I3" t="n">
         <v>0.06777154228443599</v>
@@ -19303,13 +19303,13 @@
         <v>0.7777163354474262</v>
       </c>
       <c r="F4" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1273</v>
+        <v>0.096</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2</v>
+        <v>0.1996</v>
       </c>
       <c r="I4" t="n">
         <v>-0.02975012396631982</v>
@@ -19381,13 +19381,13 @@
         <v>0.6665978035710419</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0796</v>
+        <v>0.0693</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0977</v>
+        <v>0.0882</v>
       </c>
       <c r="I5" t="n">
         <v>0.05257480362871944</v>
@@ -19459,13 +19459,13 @@
         <v>0.5554559712929974</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07489999999999999</v>
+        <v>0.0752</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0882</v>
+        <v>0.1047</v>
       </c>
       <c r="I6" t="n">
         <v>0.08839519711540185</v>
@@ -19537,13 +19537,13 @@
         <v>0.4443145321377985</v>
       </c>
       <c r="F7" t="n">
-        <v>0.045</v>
+        <v>0.075</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0429</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0506</v>
+        <v>0.0868</v>
       </c>
       <c r="I7" t="n">
         <v>0.1761583426253632</v>
@@ -19615,13 +19615,13 @@
         <v>0.3331726998579762</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0435</v>
+        <v>0.0481</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0559</v>
+        <v>0.0588</v>
       </c>
       <c r="I8" t="n">
         <v>-0.1208583061383191</v>
@@ -19693,13 +19693,13 @@
         <v>0.2220857154191831</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0618</v>
+        <v>0.0692</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07539999999999999</v>
+        <v>0.08409999999999999</v>
       </c>
       <c r="I9" t="n">
         <v>-0.04077152116209481</v>
@@ -19771,13 +19771,13 @@
         <v>0.1109438831413496</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0605</v>
+        <v>0.0578</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07679999999999999</v>
+        <v>0.0769</v>
       </c>
       <c r="I10" t="n">
         <v>-0.0552141344450596</v>
@@ -19849,13 +19849,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
+        <v>0.095</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0534</v>
+        <v>0.0732</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0636</v>
+        <v>0.128</v>
       </c>
       <c r="I11" t="n">
         <v>-0.1476737967520212</v>

--- a/data/nzd0158/nzd0158.xlsx
+++ b/data/nzd0158/nzd0158.xlsx
@@ -548,7 +548,7 @@
         <v>371.31</v>
       </c>
       <c r="G3" t="n">
-        <v>371.61</v>
+        <v>372.19</v>
       </c>
       <c r="H3" t="n">
         <v>364.47</v>
@@ -590,7 +590,7 @@
         <v>376.68</v>
       </c>
       <c r="G4" t="n">
-        <v>374.45</v>
+        <v>373.95</v>
       </c>
       <c r="H4" t="n">
         <v>374.45</v>
@@ -632,7 +632,7 @@
         <v>382.15</v>
       </c>
       <c r="G5" t="n">
-        <v>374.42</v>
+        <v>374.46</v>
       </c>
       <c r="H5" t="n">
         <v>381.65</v>
@@ -674,7 +674,7 @@
         <v>375.4</v>
       </c>
       <c r="G6" t="n">
-        <v>367.17</v>
+        <v>367.49</v>
       </c>
       <c r="H6" t="n">
         <v>369.02</v>
@@ -716,7 +716,7 @@
         <v>373.87</v>
       </c>
       <c r="G7" t="n">
-        <v>364.93</v>
+        <v>365.33</v>
       </c>
       <c r="H7" t="n">
         <v>365.01</v>
@@ -758,7 +758,7 @@
         <v>372.31</v>
       </c>
       <c r="G8" t="n">
-        <v>364.97</v>
+        <v>365.54</v>
       </c>
       <c r="H8" t="n">
         <v>365.49</v>
@@ -800,7 +800,7 @@
         <v>377.49</v>
       </c>
       <c r="G9" t="n">
-        <v>368.12</v>
+        <v>367.8</v>
       </c>
       <c r="H9" t="n">
         <v>364.49</v>
@@ -842,7 +842,7 @@
         <v>359.53</v>
       </c>
       <c r="G10" t="n">
-        <v>344.07</v>
+        <v>343.62</v>
       </c>
       <c r="H10" t="n">
         <v>360.98</v>
@@ -884,7 +884,7 @@
         <v>370.47</v>
       </c>
       <c r="G11" t="n">
-        <v>379.08</v>
+        <v>378.1</v>
       </c>
       <c r="H11" t="n">
         <v>368.48</v>
@@ -926,7 +926,7 @@
         <v>379.39</v>
       </c>
       <c r="G12" t="n">
-        <v>373.93</v>
+        <v>374.1</v>
       </c>
       <c r="H12" t="n">
         <v>376.93</v>
@@ -968,7 +968,7 @@
         <v>372.82</v>
       </c>
       <c r="G13" t="n">
-        <v>361.07</v>
+        <v>361.15</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -1004,7 +1004,7 @@
         <v>373.25</v>
       </c>
       <c r="G14" t="n">
-        <v>368.61</v>
+        <v>368.28</v>
       </c>
       <c r="H14" t="n">
         <v>357.86</v>
@@ -1046,7 +1046,7 @@
         <v>373.82</v>
       </c>
       <c r="G15" t="n">
-        <v>368.06</v>
+        <v>368.31</v>
       </c>
       <c r="H15" t="n">
         <v>375.93</v>
@@ -1088,7 +1088,7 @@
         <v>373.31</v>
       </c>
       <c r="G16" t="n">
-        <v>370.28</v>
+        <v>370.61</v>
       </c>
       <c r="H16" t="n">
         <v>367.86</v>
@@ -1130,7 +1130,7 @@
         <v>370.13</v>
       </c>
       <c r="G17" t="n">
-        <v>358.68</v>
+        <v>358.01</v>
       </c>
       <c r="H17" t="n">
         <v>357.12</v>
@@ -1172,7 +1172,7 @@
         <v>379.38</v>
       </c>
       <c r="G18" t="n">
-        <v>374.54</v>
+        <v>374</v>
       </c>
       <c r="H18" t="n">
         <v>362.26</v>
@@ -1214,7 +1214,7 @@
         <v>379.18</v>
       </c>
       <c r="G19" t="n">
-        <v>374.86</v>
+        <v>375.14</v>
       </c>
       <c r="H19" t="n">
         <v>375.92</v>
@@ -1256,7 +1256,7 @@
         <v>375.91</v>
       </c>
       <c r="G20" t="n">
-        <v>372.77</v>
+        <v>373.05</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1290,7 +1290,7 @@
         <v>373.34</v>
       </c>
       <c r="G21" t="n">
-        <v>375.83</v>
+        <v>376.49</v>
       </c>
       <c r="H21" t="n">
         <v>369.48</v>
@@ -1332,7 +1332,7 @@
         <v>372.53</v>
       </c>
       <c r="G22" t="n">
-        <v>367.22</v>
+        <v>367.12</v>
       </c>
       <c r="H22" t="n">
         <v>373.36</v>
@@ -1374,7 +1374,7 @@
         <v>381.08</v>
       </c>
       <c r="G23" t="n">
-        <v>371.5</v>
+        <v>371.23</v>
       </c>
       <c r="H23" t="n">
         <v>385.42</v>
@@ -1416,7 +1416,7 @@
         <v>376.07</v>
       </c>
       <c r="G24" t="n">
-        <v>360.64</v>
+        <v>360.97</v>
       </c>
       <c r="H24" t="n">
         <v>369.7</v>
@@ -1458,7 +1458,7 @@
         <v>369.72</v>
       </c>
       <c r="G25" t="n">
-        <v>370.93</v>
+        <v>371.5</v>
       </c>
       <c r="H25" t="n">
         <v>368.88</v>
@@ -1496,7 +1496,7 @@
         <v>378.05</v>
       </c>
       <c r="G26" t="n">
-        <v>379.32</v>
+        <v>379.52</v>
       </c>
       <c r="H26" t="n">
         <v>370.92</v>
@@ -1538,7 +1538,7 @@
         <v>375.34</v>
       </c>
       <c r="G27" t="n">
-        <v>376.26</v>
+        <v>376.69</v>
       </c>
       <c r="H27" t="n">
         <v>375.85</v>
@@ -1580,7 +1580,7 @@
         <v>367.8</v>
       </c>
       <c r="G28" t="n">
-        <v>346.77</v>
+        <v>346.05</v>
       </c>
       <c r="H28" t="n">
         <v>369.29</v>
@@ -1616,7 +1616,7 @@
         <v>366.1</v>
       </c>
       <c r="G29" t="n">
-        <v>362.69</v>
+        <v>363.31</v>
       </c>
       <c r="H29" t="n">
         <v>364.1</v>
@@ -1712,7 +1712,7 @@
         <v>367.21</v>
       </c>
       <c r="G32" t="n">
-        <v>354.87</v>
+        <v>355.17</v>
       </c>
       <c r="H32" t="n">
         <v>356.56</v>
@@ -1748,7 +1748,7 @@
         <v>374.38</v>
       </c>
       <c r="G33" t="n">
-        <v>369.41</v>
+        <v>369.66</v>
       </c>
       <c r="H33" t="n">
         <v>373.19</v>
@@ -1820,7 +1820,7 @@
         <v>372.45</v>
       </c>
       <c r="G35" t="n">
-        <v>369.04</v>
+        <v>369.19</v>
       </c>
       <c r="H35" t="n">
         <v>371.59</v>
@@ -1856,7 +1856,7 @@
         <v>369.5</v>
       </c>
       <c r="G36" t="n">
-        <v>362.95</v>
+        <v>362.83</v>
       </c>
       <c r="H36" t="n">
         <v>371.67</v>
@@ -1898,7 +1898,7 @@
         <v>375.79</v>
       </c>
       <c r="G37" t="n">
-        <v>368.18</v>
+        <v>367.86</v>
       </c>
       <c r="H37" t="n">
         <v>371.23</v>
@@ -1940,7 +1940,7 @@
         <v>374.93</v>
       </c>
       <c r="G38" t="n">
-        <v>361.5</v>
+        <v>361.75</v>
       </c>
       <c r="H38" t="n">
         <v>370.8</v>
@@ -1982,7 +1982,7 @@
         <v>373.48</v>
       </c>
       <c r="G39" t="n">
-        <v>362.91</v>
+        <v>363.24</v>
       </c>
       <c r="H39" t="n">
         <v>363.41</v>
@@ -2024,7 +2024,7 @@
         <v>367.99</v>
       </c>
       <c r="G40" t="n">
-        <v>348.4</v>
+        <v>347.8</v>
       </c>
       <c r="H40" t="n">
         <v>360.1</v>
@@ -2066,7 +2066,7 @@
         <v>381.51</v>
       </c>
       <c r="G41" t="n">
-        <v>383.75</v>
+        <v>384.18</v>
       </c>
       <c r="H41" t="n">
         <v>380.78</v>
@@ -2108,7 +2108,7 @@
         <v>370.16</v>
       </c>
       <c r="G42" t="n">
-        <v>368.45</v>
+        <v>368.53</v>
       </c>
       <c r="H42" t="n">
         <v>369.12</v>
@@ -2150,7 +2150,7 @@
         <v>373.72</v>
       </c>
       <c r="G43" t="n">
-        <v>368.53</v>
+        <v>368.58</v>
       </c>
       <c r="H43" t="n">
         <v>373.65</v>
@@ -2192,7 +2192,7 @@
         <v>374.11</v>
       </c>
       <c r="G44" t="n">
-        <v>363.12</v>
+        <v>362.8</v>
       </c>
       <c r="H44" t="n">
         <v>371.41</v>
@@ -2228,7 +2228,7 @@
         <v>364.55</v>
       </c>
       <c r="G45" t="n">
-        <v>364.23</v>
+        <v>363.78</v>
       </c>
       <c r="H45" t="n">
         <v>362.54</v>
@@ -2270,7 +2270,7 @@
         <v>386.53</v>
       </c>
       <c r="G46" t="n">
-        <v>380.37</v>
+        <v>380.02</v>
       </c>
       <c r="H46" t="n">
         <v>377.9</v>
@@ -2342,7 +2342,7 @@
         <v>376.82</v>
       </c>
       <c r="G48" t="n">
-        <v>372.44</v>
+        <v>373.11</v>
       </c>
       <c r="H48" t="n">
         <v>370.87</v>
@@ -2384,7 +2384,7 @@
         <v>380.53</v>
       </c>
       <c r="G49" t="n">
-        <v>380.91</v>
+        <v>380.74</v>
       </c>
       <c r="H49" t="n">
         <v>379.77</v>
@@ -2426,7 +2426,7 @@
         <v>382.77</v>
       </c>
       <c r="G50" t="n">
-        <v>376.66</v>
+        <v>376.04</v>
       </c>
       <c r="H50" t="n">
         <v>393.12</v>
@@ -2468,7 +2468,7 @@
         <v>367.86</v>
       </c>
       <c r="G51" t="n">
-        <v>361.17</v>
+        <v>361.15</v>
       </c>
       <c r="H51" t="n">
         <v>367.75</v>
@@ -2510,7 +2510,7 @@
         <v>372.32</v>
       </c>
       <c r="G52" t="n">
-        <v>364.43</v>
+        <v>363.69</v>
       </c>
       <c r="H52" t="n">
         <v>378.07</v>
@@ -2552,7 +2552,7 @@
         <v>383.82</v>
       </c>
       <c r="G53" t="n">
-        <v>384.77</v>
+        <v>385.19</v>
       </c>
       <c r="H53" t="n">
         <v>383.5</v>
@@ -2594,7 +2594,7 @@
         <v>384.42</v>
       </c>
       <c r="G54" t="n">
-        <v>381.74</v>
+        <v>381.25</v>
       </c>
       <c r="H54" t="n">
         <v>383.49</v>
@@ -2636,7 +2636,7 @@
         <v>379.19</v>
       </c>
       <c r="G55" t="n">
-        <v>369.22</v>
+        <v>369.32</v>
       </c>
       <c r="H55" t="n">
         <v>374.27</v>
@@ -2678,7 +2678,7 @@
         <v>378.88</v>
       </c>
       <c r="G56" t="n">
-        <v>370.54</v>
+        <v>370.21</v>
       </c>
       <c r="H56" t="n">
         <v>376.91</v>
@@ -2720,7 +2720,7 @@
         <v>373.61</v>
       </c>
       <c r="G57" t="n">
-        <v>369.79</v>
+        <v>370.12</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2750,7 +2750,7 @@
         <v>360.14</v>
       </c>
       <c r="G58" t="n">
-        <v>361.21</v>
+        <v>361.36</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -2788,7 +2788,7 @@
         <v>345.51</v>
       </c>
       <c r="G59" t="n">
-        <v>331.15</v>
+        <v>330.52</v>
       </c>
       <c r="H59" t="n">
         <v>343.99</v>
@@ -2828,7 +2828,7 @@
         <v>377.86</v>
       </c>
       <c r="G60" t="n">
-        <v>377.18</v>
+        <v>377.55</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -2862,7 +2862,7 @@
         <v>369.71</v>
       </c>
       <c r="G61" t="n">
-        <v>366.46</v>
+        <v>366.56</v>
       </c>
       <c r="H61" t="n">
         <v>361.54</v>
@@ -2904,7 +2904,7 @@
         <v>376.75</v>
       </c>
       <c r="G62" t="n">
-        <v>372.77</v>
+        <v>372.32</v>
       </c>
       <c r="H62" t="n">
         <v>381.79</v>
@@ -2946,7 +2946,7 @@
         <v>366.69</v>
       </c>
       <c r="G63" t="n">
-        <v>354.35</v>
+        <v>353.63</v>
       </c>
       <c r="H63" t="n">
         <v>371.88</v>
@@ -2988,7 +2988,7 @@
         <v>366.61</v>
       </c>
       <c r="G64" t="n">
-        <v>357.57</v>
+        <v>358.02</v>
       </c>
       <c r="H64" t="n">
         <v>358.48</v>
@@ -3028,7 +3028,7 @@
         <v>362.71</v>
       </c>
       <c r="G65" t="n">
-        <v>357.29</v>
+        <v>357.6</v>
       </c>
       <c r="H65" t="n">
         <v>355.58</v>
@@ -3070,7 +3070,7 @@
         <v>375.68</v>
       </c>
       <c r="G66" t="n">
-        <v>368.68</v>
+        <v>368.33</v>
       </c>
       <c r="H66" t="n">
         <v>363.33</v>
@@ -3112,7 +3112,7 @@
         <v>382.55</v>
       </c>
       <c r="G67" t="n">
-        <v>369.18</v>
+        <v>368.58</v>
       </c>
       <c r="H67" t="n">
         <v>380.32</v>
@@ -3154,7 +3154,7 @@
         <v>369.9</v>
       </c>
       <c r="G68" t="n">
-        <v>360.83</v>
+        <v>361.5</v>
       </c>
       <c r="H68" t="n">
         <v>364.96</v>
@@ -3196,7 +3196,7 @@
         <v>376.31</v>
       </c>
       <c r="G69" t="n">
-        <v>364.96</v>
+        <v>365.24</v>
       </c>
       <c r="H69" t="n">
         <v>371.77</v>
@@ -3238,7 +3238,7 @@
         <v>370.34</v>
       </c>
       <c r="G70" t="n">
-        <v>363.36</v>
+        <v>363.58</v>
       </c>
       <c r="H70" t="n">
         <v>362.56</v>
@@ -3308,7 +3308,7 @@
         <v>364.03</v>
       </c>
       <c r="G72" t="n">
-        <v>356.72</v>
+        <v>355.95</v>
       </c>
       <c r="H72" t="n">
         <v>369.56</v>
@@ -3370,7 +3370,7 @@
         <v>373.2</v>
       </c>
       <c r="G74" t="n">
-        <v>365.19</v>
+        <v>364.55</v>
       </c>
       <c r="H74" t="n">
         <v>374.78</v>
@@ -3412,7 +3412,7 @@
         <v>367.27</v>
       </c>
       <c r="G75" t="n">
-        <v>358.48</v>
+        <v>358.98</v>
       </c>
       <c r="H75" t="n">
         <v>360.79</v>
@@ -3486,7 +3486,7 @@
         <v>374.39</v>
       </c>
       <c r="G77" t="n">
-        <v>363.22</v>
+        <v>363.34</v>
       </c>
       <c r="H77" t="n">
         <v>367.36</v>
@@ -3528,7 +3528,7 @@
         <v>363.95</v>
       </c>
       <c r="G78" t="n">
-        <v>357.75</v>
+        <v>357.1</v>
       </c>
       <c r="H78" t="n">
         <v>369.28</v>
@@ -3570,7 +3570,7 @@
         <v>377.46</v>
       </c>
       <c r="G79" t="n">
-        <v>370.86</v>
+        <v>370.44</v>
       </c>
       <c r="H79" t="n">
         <v>379.73</v>
@@ -3668,7 +3668,7 @@
         <v>381.41</v>
       </c>
       <c r="G82" t="n">
-        <v>374.07</v>
+        <v>373.77</v>
       </c>
       <c r="H82" t="n">
         <v>368.43</v>
@@ -3710,7 +3710,7 @@
         <v>363.03</v>
       </c>
       <c r="G83" t="n">
-        <v>356.54</v>
+        <v>356.74</v>
       </c>
       <c r="H83" t="n">
         <v>350.08</v>
@@ -3780,7 +3780,7 @@
         <v>381.68</v>
       </c>
       <c r="G85" t="n">
-        <v>379.53</v>
+        <v>379.45</v>
       </c>
       <c r="H85" t="n">
         <v>381.08</v>
@@ -3854,7 +3854,7 @@
         <v>362.48</v>
       </c>
       <c r="G87" t="n">
-        <v>356.29</v>
+        <v>356.69</v>
       </c>
       <c r="H87" t="n">
         <v>365.63</v>
@@ -3892,7 +3892,7 @@
         <v>374.4</v>
       </c>
       <c r="G88" t="n">
-        <v>367.68</v>
+        <v>367.4</v>
       </c>
       <c r="H88" t="n">
         <v>365.07</v>
@@ -3934,7 +3934,7 @@
         <v>378.92</v>
       </c>
       <c r="G89" t="n">
-        <v>357.72</v>
+        <v>357.12</v>
       </c>
       <c r="H89" t="n">
         <v>367.85</v>
@@ -3976,7 +3976,7 @@
         <v>375.12</v>
       </c>
       <c r="G90" t="n">
-        <v>367.44</v>
+        <v>368.14</v>
       </c>
       <c r="H90" t="n">
         <v>366.27</v>
@@ -4012,7 +4012,7 @@
         <v>357.04</v>
       </c>
       <c r="G91" t="n">
-        <v>351.63</v>
+        <v>351.82</v>
       </c>
       <c r="H91" t="n">
         <v>353.6</v>
@@ -4054,7 +4054,7 @@
         <v>368.3</v>
       </c>
       <c r="G92" t="n">
-        <v>355.12</v>
+        <v>355.69</v>
       </c>
       <c r="H92" t="n">
         <v>364.13</v>
@@ -4128,7 +4128,7 @@
         <v>355.61</v>
       </c>
       <c r="G94" t="n">
-        <v>349.34</v>
+        <v>348.79</v>
       </c>
       <c r="H94" t="n">
         <v>364.21</v>
@@ -4202,7 +4202,7 @@
         <v>370.81</v>
       </c>
       <c r="G96" t="n">
-        <v>365.32</v>
+        <v>365.74</v>
       </c>
       <c r="H96" t="n">
         <v>369.5</v>
@@ -4242,7 +4242,7 @@
         <v>360.48</v>
       </c>
       <c r="G97" t="n">
-        <v>352.06</v>
+        <v>352.31</v>
       </c>
       <c r="H97" t="n">
         <v>349.33</v>
@@ -4284,7 +4284,7 @@
         <v>365.63</v>
       </c>
       <c r="G98" t="n">
-        <v>354.67</v>
+        <v>354.39</v>
       </c>
       <c r="H98" t="n">
         <v>357.79</v>
@@ -4326,7 +4326,7 @@
         <v>374.22</v>
       </c>
       <c r="G99" t="n">
-        <v>349.06</v>
+        <v>348.69</v>
       </c>
       <c r="H99" t="n">
         <v>367.08</v>
@@ -4368,7 +4368,7 @@
         <v>379.1</v>
       </c>
       <c r="G100" t="n">
-        <v>384.35</v>
+        <v>384.55</v>
       </c>
       <c r="H100" t="n">
         <v>382.3</v>
@@ -4404,7 +4404,7 @@
         <v>366.43</v>
       </c>
       <c r="G101" t="n">
-        <v>365.95</v>
+        <v>365.19</v>
       </c>
       <c r="H101" t="n">
         <v>349.4</v>
@@ -4548,7 +4548,7 @@
         <v>377.22</v>
       </c>
       <c r="G105" t="n">
-        <v>371.98</v>
+        <v>372.15</v>
       </c>
       <c r="H105" t="n">
         <v>373.9</v>
@@ -4590,7 +4590,7 @@
         <v>363.96</v>
       </c>
       <c r="G106" t="n">
-        <v>370.86</v>
+        <v>370.36</v>
       </c>
       <c r="H106" t="n">
         <v>364.5</v>
@@ -4632,7 +4632,7 @@
         <v>372.3</v>
       </c>
       <c r="G107" t="n">
-        <v>366.82</v>
+        <v>367.23</v>
       </c>
       <c r="H107" t="n">
         <v>371.18</v>
@@ -4674,7 +4674,7 @@
         <v>369.88</v>
       </c>
       <c r="G108" t="n">
-        <v>363.09</v>
+        <v>363.75</v>
       </c>
       <c r="H108" t="n">
         <v>365.69</v>
@@ -4716,7 +4716,7 @@
         <v>369.26</v>
       </c>
       <c r="G109" t="n">
-        <v>362.87</v>
+        <v>363.05</v>
       </c>
       <c r="H109" t="n">
         <v>361.79</v>
@@ -4758,7 +4758,7 @@
         <v>376.28</v>
       </c>
       <c r="G110" t="n">
-        <v>372.45</v>
+        <v>372.13</v>
       </c>
       <c r="H110" t="n">
         <v>357.35</v>
@@ -4796,7 +4796,7 @@
         <v>383.8</v>
       </c>
       <c r="G111" t="n">
-        <v>376.41</v>
+        <v>375.88</v>
       </c>
       <c r="H111" t="n">
         <v>366.78</v>
@@ -4838,7 +4838,7 @@
         <v>363.71</v>
       </c>
       <c r="G112" t="n">
-        <v>353.02</v>
+        <v>352.35</v>
       </c>
       <c r="H112" t="n">
         <v>346.01</v>
@@ -4880,7 +4880,7 @@
         <v>370.95</v>
       </c>
       <c r="G113" t="n">
-        <v>361.86</v>
+        <v>362.36</v>
       </c>
       <c r="H113" t="n">
         <v>358.68</v>
@@ -4922,7 +4922,7 @@
         <v>363.46</v>
       </c>
       <c r="G114" t="n">
-        <v>360.67</v>
+        <v>360.94</v>
       </c>
       <c r="H114" t="n">
         <v>357.74</v>
@@ -4994,7 +4994,7 @@
         <v>361.1</v>
       </c>
       <c r="G116" t="n">
-        <v>364.43</v>
+        <v>364.4</v>
       </c>
       <c r="H116" t="n">
         <v>359.81</v>
@@ -5036,7 +5036,7 @@
         <v>375.25</v>
       </c>
       <c r="G117" t="n">
-        <v>375.92</v>
+        <v>376.47</v>
       </c>
       <c r="H117" t="n">
         <v>368.11</v>
@@ -5078,7 +5078,7 @@
         <v>368.69</v>
       </c>
       <c r="G118" t="n">
-        <v>366.34</v>
+        <v>366.77</v>
       </c>
       <c r="H118" t="n">
         <v>363.77</v>
@@ -5120,7 +5120,7 @@
         <v>374.34</v>
       </c>
       <c r="G119" t="n">
-        <v>366.88</v>
+        <v>367.06</v>
       </c>
       <c r="H119" t="n">
         <v>367.11</v>
@@ -5162,7 +5162,7 @@
         <v>355.04</v>
       </c>
       <c r="G120" t="n">
-        <v>357.02</v>
+        <v>357.06</v>
       </c>
       <c r="H120" t="n">
         <v>351.65</v>
@@ -5204,7 +5204,7 @@
         <v>379.74</v>
       </c>
       <c r="G121" t="n">
-        <v>375.1</v>
+        <v>375.14</v>
       </c>
       <c r="H121" t="n">
         <v>381.46</v>
@@ -5246,7 +5246,7 @@
         <v>354.08</v>
       </c>
       <c r="G122" t="n">
-        <v>348.12</v>
+        <v>348.62</v>
       </c>
       <c r="H122" t="n">
         <v>355.85</v>
@@ -5288,7 +5288,7 @@
         <v>381.54</v>
       </c>
       <c r="G123" t="n">
-        <v>377.94</v>
+        <v>377.63</v>
       </c>
       <c r="H123" t="n">
         <v>388.85</v>
@@ -5362,7 +5362,7 @@
         <v>369.4</v>
       </c>
       <c r="G125" t="n">
-        <v>364.3</v>
+        <v>364.95</v>
       </c>
       <c r="H125" t="n">
         <v>364.37</v>
@@ -5394,7 +5394,7 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="n">
-        <v>371.49</v>
+        <v>370.72</v>
       </c>
       <c r="H126" t="n">
         <v>368.81</v>
@@ -5436,7 +5436,7 @@
         <v>370.12</v>
       </c>
       <c r="G127" t="n">
-        <v>364.66</v>
+        <v>364.73</v>
       </c>
       <c r="H127" t="n">
         <v>364.08</v>
@@ -5478,7 +5478,7 @@
         <v>364.63</v>
       </c>
       <c r="G128" t="n">
-        <v>360.26</v>
+        <v>360.84</v>
       </c>
       <c r="H128" t="n">
         <v>360.92</v>
@@ -5546,7 +5546,7 @@
         <v>366.66</v>
       </c>
       <c r="G130" t="n">
-        <v>365.18</v>
+        <v>365.65</v>
       </c>
       <c r="H130" t="n">
         <v>366.66</v>
@@ -5588,7 +5588,7 @@
         <v>385.06</v>
       </c>
       <c r="G131" t="n">
-        <v>361.74</v>
+        <v>361.07</v>
       </c>
       <c r="H131" t="n">
         <v>369.13</v>
@@ -5630,7 +5630,7 @@
         <v>384.11</v>
       </c>
       <c r="G132" t="n">
-        <v>365.44</v>
+        <v>364.72</v>
       </c>
       <c r="H132" t="n">
         <v>372.4</v>
@@ -5666,7 +5666,7 @@
         <v>363.2</v>
       </c>
       <c r="G133" t="n">
-        <v>357.97</v>
+        <v>358.55</v>
       </c>
       <c r="H133" t="n">
         <v>359.18</v>
@@ -5702,7 +5702,7 @@
         <v>369.9</v>
       </c>
       <c r="G134" t="n">
-        <v>366.82</v>
+        <v>367.12</v>
       </c>
       <c r="H134" t="n">
         <v>368.83</v>
@@ -5828,7 +5828,7 @@
         <v>381.59</v>
       </c>
       <c r="G138" t="n">
-        <v>373.62</v>
+        <v>373.35</v>
       </c>
       <c r="H138" t="n">
         <v>380.98</v>
@@ -5870,7 +5870,7 @@
         <v>386.43</v>
       </c>
       <c r="G139" t="n">
-        <v>372.18</v>
+        <v>371.48</v>
       </c>
       <c r="H139" t="n">
         <v>375.19</v>
@@ -5912,7 +5912,7 @@
         <v>367.87</v>
       </c>
       <c r="G140" t="n">
-        <v>368.22</v>
+        <v>368.69</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
         <v>370.25</v>
       </c>
       <c r="G141" t="n">
-        <v>360.6</v>
+        <v>361.11</v>
       </c>
       <c r="H141" t="n">
         <v>359.76</v>
@@ -5988,7 +5988,7 @@
         <v>380.04</v>
       </c>
       <c r="G142" t="n">
-        <v>373.51</v>
+        <v>373.54</v>
       </c>
       <c r="H142" t="n">
         <v>368.53</v>
@@ -6030,7 +6030,7 @@
         <v>377.46</v>
       </c>
       <c r="G143" t="n">
-        <v>372.64</v>
+        <v>372.61</v>
       </c>
       <c r="H143" t="n">
         <v>366.29</v>
@@ -6072,7 +6072,7 @@
         <v>372.83</v>
       </c>
       <c r="G144" t="n">
-        <v>359.19</v>
+        <v>358.66</v>
       </c>
       <c r="H144" t="n">
         <v>370.9</v>
@@ -6108,7 +6108,7 @@
         <v>371.99</v>
       </c>
       <c r="G145" t="n">
-        <v>364.87</v>
+        <v>365.6</v>
       </c>
       <c r="H145" t="n">
         <v>360.5</v>
@@ -6150,7 +6150,7 @@
         <v>361.02</v>
       </c>
       <c r="G146" t="n">
-        <v>360.44</v>
+        <v>359.71</v>
       </c>
       <c r="H146" t="n">
         <v>359.16</v>
@@ -6192,7 +6192,7 @@
         <v>372.45</v>
       </c>
       <c r="G147" t="n">
-        <v>365.13</v>
+        <v>365.65</v>
       </c>
       <c r="H147" t="n">
         <v>365</v>
@@ -6234,7 +6234,7 @@
         <v>372.04</v>
       </c>
       <c r="G148" t="n">
-        <v>367.54</v>
+        <v>367.14</v>
       </c>
       <c r="H148" t="n">
         <v>364.23</v>
@@ -6316,7 +6316,7 @@
         <v>359.76</v>
       </c>
       <c r="G150" t="n">
-        <v>362.44</v>
+        <v>361.54</v>
       </c>
       <c r="H150" t="n">
         <v>362.03</v>
@@ -6386,7 +6386,7 @@
         <v>356.91</v>
       </c>
       <c r="G152" t="n">
-        <v>338.05</v>
+        <v>337.32</v>
       </c>
       <c r="H152" t="n">
         <v>346.84</v>
@@ -6428,7 +6428,7 @@
         <v>375.92</v>
       </c>
       <c r="G153" t="n">
-        <v>371.86</v>
+        <v>372.24</v>
       </c>
       <c r="H153" t="n">
         <v>376.37</v>
@@ -6466,7 +6466,7 @@
         <v>376.52</v>
       </c>
       <c r="G154" t="n">
-        <v>375.16</v>
+        <v>374.36</v>
       </c>
       <c r="H154" t="n">
         <v>376.95</v>
@@ -6508,7 +6508,7 @@
         <v>373.32</v>
       </c>
       <c r="G155" t="n">
-        <v>363.73</v>
+        <v>364.16</v>
       </c>
       <c r="H155" t="n">
         <v>370.5</v>
@@ -6550,7 +6550,7 @@
         <v>363.11</v>
       </c>
       <c r="G156" t="n">
-        <v>363.23</v>
+        <v>363.06</v>
       </c>
       <c r="H156" t="n">
         <v>365.57</v>
@@ -6592,7 +6592,7 @@
         <v>374.08</v>
       </c>
       <c r="G157" t="n">
-        <v>365.14</v>
+        <v>365.19</v>
       </c>
       <c r="H157" t="n">
         <v>366.54</v>
@@ -6634,7 +6634,7 @@
         <v>373.78</v>
       </c>
       <c r="G158" t="n">
-        <v>367.59</v>
+        <v>367.29</v>
       </c>
       <c r="H158" t="n">
         <v>366.65</v>
@@ -6676,7 +6676,7 @@
         <v>383.83</v>
       </c>
       <c r="G159" t="n">
-        <v>378.84</v>
+        <v>378.42</v>
       </c>
       <c r="H159" t="n">
         <v>375.52</v>
@@ -6718,7 +6718,7 @@
         <v>367.38</v>
       </c>
       <c r="G160" t="n">
-        <v>377.66</v>
+        <v>376.94</v>
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
@@ -6746,7 +6746,7 @@
         <v>378.63</v>
       </c>
       <c r="G161" t="n">
-        <v>371.89</v>
+        <v>371.77</v>
       </c>
       <c r="H161" t="n">
         <v>363.61</v>
@@ -6830,7 +6830,7 @@
         <v>370.76</v>
       </c>
       <c r="G163" t="n">
-        <v>363.62</v>
+        <v>364.15</v>
       </c>
       <c r="H163" t="n">
         <v>361.58</v>
@@ -6902,7 +6902,7 @@
         <v>381.66</v>
       </c>
       <c r="G165" t="n">
-        <v>377.52</v>
+        <v>377.05</v>
       </c>
       <c r="H165" t="n">
         <v>378.06</v>
@@ -6944,7 +6944,7 @@
         <v>370</v>
       </c>
       <c r="G166" t="n">
-        <v>365.15</v>
+        <v>365.77</v>
       </c>
       <c r="H166" t="n">
         <v>367.02</v>
@@ -7020,7 +7020,7 @@
         <v>376.74</v>
       </c>
       <c r="G168" t="n">
-        <v>373.93</v>
+        <v>373.44</v>
       </c>
       <c r="H168" t="n">
         <v>383.21</v>
@@ -7062,7 +7062,7 @@
         <v>372.89</v>
       </c>
       <c r="G169" t="n">
-        <v>365.53</v>
+        <v>365.78</v>
       </c>
       <c r="H169" t="n">
         <v>372.75</v>
@@ -7094,7 +7094,7 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
-        <v>370.45</v>
+        <v>370.35</v>
       </c>
       <c r="H170" t="n">
         <v>377.49</v>
@@ -7136,7 +7136,7 @@
         <v>376.42</v>
       </c>
       <c r="G171" t="n">
-        <v>368.25</v>
+        <v>368.7</v>
       </c>
       <c r="H171" t="n">
         <v>369.87</v>
@@ -7178,7 +7178,7 @@
         <v>372.32</v>
       </c>
       <c r="G172" t="n">
-        <v>359.9</v>
+        <v>360.5</v>
       </c>
       <c r="H172" t="n">
         <v>347.36</v>
@@ -7220,7 +7220,7 @@
         <v>362.82</v>
       </c>
       <c r="G173" t="n">
-        <v>354.71</v>
+        <v>353.91</v>
       </c>
       <c r="H173" t="n">
         <v>366.99</v>
@@ -7262,7 +7262,7 @@
         <v>372.76</v>
       </c>
       <c r="G174" t="n">
-        <v>367.64</v>
+        <v>368.08</v>
       </c>
       <c r="H174" t="n">
         <v>369.29</v>
@@ -7304,7 +7304,7 @@
         <v>370.29</v>
       </c>
       <c r="G175" t="n">
-        <v>357.42</v>
+        <v>357.02</v>
       </c>
       <c r="H175" t="n">
         <v>361.41</v>
@@ -7346,7 +7346,7 @@
         <v>373.65</v>
       </c>
       <c r="G176" t="n">
-        <v>365.01</v>
+        <v>365.4</v>
       </c>
       <c r="H176" t="n">
         <v>365.06</v>
@@ -7388,7 +7388,7 @@
         <v>369.21</v>
       </c>
       <c r="G177" t="n">
-        <v>363.42</v>
+        <v>364.17</v>
       </c>
       <c r="H177" t="n">
         <v>368.24</v>
@@ -7426,7 +7426,7 @@
         <v>386.05</v>
       </c>
       <c r="G178" t="n">
-        <v>379.77</v>
+        <v>379.44</v>
       </c>
       <c r="H178" t="n">
         <v>372.52</v>
@@ -7508,7 +7508,7 @@
         <v>364.33</v>
       </c>
       <c r="G180" t="n">
-        <v>352.07</v>
+        <v>351.92</v>
       </c>
       <c r="H180" t="n">
         <v>355.45</v>
@@ -7550,7 +7550,7 @@
         <v>376.53</v>
       </c>
       <c r="G181" t="n">
-        <v>370.7</v>
+        <v>370.75</v>
       </c>
       <c r="H181" t="n">
         <v>374.63</v>
@@ -7592,7 +7592,7 @@
         <v>373.07</v>
       </c>
       <c r="G182" t="n">
-        <v>375</v>
+        <v>374.43</v>
       </c>
       <c r="H182" t="n">
         <v>365.05</v>
@@ -7664,7 +7664,7 @@
         <v>367.79</v>
       </c>
       <c r="G184" t="n">
-        <v>358.8</v>
+        <v>359.12</v>
       </c>
       <c r="H184" t="n">
         <v>365.49</v>
@@ -7706,7 +7706,7 @@
         <v>357.68</v>
       </c>
       <c r="G185" t="n">
-        <v>363.01</v>
+        <v>362.69</v>
       </c>
       <c r="H185" t="n">
         <v>356.33</v>
@@ -7748,7 +7748,7 @@
         <v>375.57</v>
       </c>
       <c r="G186" t="n">
-        <v>370.15</v>
+        <v>370.18</v>
       </c>
       <c r="H186" t="n">
         <v>367.95</v>
@@ -7784,7 +7784,7 @@
         <v>362.85</v>
       </c>
       <c r="G187" t="n">
-        <v>364.7</v>
+        <v>363.89</v>
       </c>
       <c r="H187" t="n">
         <v>365.92</v>
@@ -7826,7 +7826,7 @@
         <v>372.14</v>
       </c>
       <c r="G188" t="n">
-        <v>368.31</v>
+        <v>368.76</v>
       </c>
       <c r="H188" t="n">
         <v>370.3</v>
@@ -7868,7 +7868,7 @@
         <v>375.16</v>
       </c>
       <c r="G189" t="n">
-        <v>370.33</v>
+        <v>370.41</v>
       </c>
       <c r="H189" t="n">
         <v>359.71</v>
@@ -7900,7 +7900,7 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
-        <v>345.33</v>
+        <v>345.3</v>
       </c>
       <c r="H190" t="n">
         <v>342.97</v>
@@ -7942,7 +7942,7 @@
         <v>368.09</v>
       </c>
       <c r="G191" t="n">
-        <v>363.77</v>
+        <v>364.51</v>
       </c>
       <c r="H191" t="n">
         <v>361.45</v>
@@ -7980,7 +7980,7 @@
         <v>368.17</v>
       </c>
       <c r="G192" t="n">
-        <v>360.84</v>
+        <v>361.44</v>
       </c>
       <c r="H192" t="n">
         <v>357.35</v>
@@ -8020,7 +8020,7 @@
         <v>372.28</v>
       </c>
       <c r="G193" t="n">
-        <v>368.7</v>
+        <v>369.07</v>
       </c>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
@@ -8054,7 +8054,7 @@
         <v>367.59</v>
       </c>
       <c r="G194" t="n">
-        <v>366.16</v>
+        <v>365.93</v>
       </c>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
@@ -8088,7 +8088,7 @@
         <v>380.06</v>
       </c>
       <c r="G195" t="n">
-        <v>378.83</v>
+        <v>378.95</v>
       </c>
       <c r="H195" t="n">
         <v>377.86</v>
@@ -8130,7 +8130,7 @@
         <v>371.03</v>
       </c>
       <c r="G196" t="n">
-        <v>368.27</v>
+        <v>368.85</v>
       </c>
       <c r="H196" t="n">
         <v>371.62</v>
@@ -8162,7 +8162,7 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="n">
-        <v>368.54</v>
+        <v>367.97</v>
       </c>
       <c r="H197" t="n">
         <v>368.58</v>
@@ -8238,7 +8238,7 @@
         <v>377.58</v>
       </c>
       <c r="G199" t="n">
-        <v>376.2</v>
+        <v>375.61</v>
       </c>
       <c r="H199" t="n">
         <v>372.43</v>
@@ -8314,7 +8314,7 @@
         <v>380.66</v>
       </c>
       <c r="G201" t="n">
-        <v>380.24</v>
+        <v>379.38</v>
       </c>
       <c r="H201" t="n">
         <v>384.16</v>
@@ -8356,7 +8356,7 @@
         <v>383.3</v>
       </c>
       <c r="G202" t="n">
-        <v>382.37</v>
+        <v>381.55</v>
       </c>
       <c r="H202" t="n">
         <v>387.33</v>
@@ -8398,7 +8398,7 @@
         <v>363.54</v>
       </c>
       <c r="G203" t="n">
-        <v>361.96</v>
+        <v>362.33</v>
       </c>
       <c r="H203" t="n">
         <v>364.19</v>
@@ -8436,7 +8436,7 @@
         <v>376.58</v>
       </c>
       <c r="G204" t="n">
-        <v>370.33</v>
+        <v>370.5</v>
       </c>
       <c r="H204" t="n">
         <v>378.97</v>
@@ -8478,7 +8478,7 @@
         <v>385.14</v>
       </c>
       <c r="G205" t="n">
-        <v>384.06</v>
+        <v>383.93</v>
       </c>
       <c r="H205" t="n">
         <v>390.22</v>
@@ -8520,7 +8520,7 @@
         <v>371.8</v>
       </c>
       <c r="G206" t="n">
-        <v>368.05</v>
+        <v>368.63</v>
       </c>
       <c r="H206" t="n">
         <v>373.87</v>
@@ -8562,7 +8562,7 @@
         <v>367.59</v>
       </c>
       <c r="G207" t="n">
-        <v>378.68</v>
+        <v>377.9</v>
       </c>
       <c r="H207" t="n">
         <v>382.56</v>
@@ -8604,7 +8604,7 @@
         <v>376.34</v>
       </c>
       <c r="G208" t="n">
-        <v>376.89</v>
+        <v>377.37</v>
       </c>
       <c r="H208" t="n">
         <v>374.89</v>
@@ -8646,7 +8646,7 @@
         <v>374.09</v>
       </c>
       <c r="G209" t="n">
-        <v>376.03</v>
+        <v>376.62</v>
       </c>
       <c r="H209" t="n">
         <v>370.91</v>
@@ -8688,7 +8688,7 @@
         <v>378.77</v>
       </c>
       <c r="G210" t="n">
-        <v>377.86</v>
+        <v>377.84</v>
       </c>
       <c r="H210" t="n">
         <v>385.56</v>
@@ -8730,7 +8730,7 @@
         <v>375.68</v>
       </c>
       <c r="G211" t="n">
-        <v>368.13</v>
+        <v>367.75</v>
       </c>
       <c r="H211" t="n">
         <v>362.5</v>
@@ -8802,7 +8802,7 @@
         <v>383.49</v>
       </c>
       <c r="G213" t="n">
-        <v>375.73</v>
+        <v>375.33</v>
       </c>
       <c r="H213" t="n">
         <v>371.43</v>
@@ -8844,7 +8844,7 @@
         <v>361.08</v>
       </c>
       <c r="G214" t="n">
-        <v>362.27</v>
+        <v>361.62</v>
       </c>
       <c r="H214" t="n">
         <v>365.66</v>
@@ -8886,7 +8886,7 @@
         <v>362.6</v>
       </c>
       <c r="G215" t="n">
-        <v>364.89</v>
+        <v>364.63</v>
       </c>
       <c r="H215" t="n">
         <v>363.39</v>
@@ -8928,7 +8928,7 @@
         <v>362.66</v>
       </c>
       <c r="G216" t="n">
-        <v>354.98</v>
+        <v>354.07</v>
       </c>
       <c r="H216" t="n">
         <v>352.82</v>
@@ -8970,7 +8970,7 @@
         <v>372.2</v>
       </c>
       <c r="G217" t="n">
-        <v>366.9</v>
+        <v>367.35</v>
       </c>
       <c r="H217" t="n">
         <v>367.85</v>
@@ -9012,7 +9012,7 @@
         <v>379.67</v>
       </c>
       <c r="G218" t="n">
-        <v>372.11</v>
+        <v>371.92</v>
       </c>
       <c r="H218" t="n">
         <v>369.49</v>
@@ -9052,7 +9052,7 @@
         <v>371.57</v>
       </c>
       <c r="G219" t="n">
-        <v>380.58</v>
+        <v>380.98</v>
       </c>
       <c r="H219" t="n">
         <v>373.38</v>
@@ -9094,7 +9094,7 @@
         <v>364.33</v>
       </c>
       <c r="G220" t="n">
-        <v>361.62</v>
+        <v>361</v>
       </c>
       <c r="H220" t="n">
         <v>371.68</v>
@@ -9136,7 +9136,7 @@
         <v>366.46</v>
       </c>
       <c r="G221" t="n">
-        <v>365.43</v>
+        <v>365.13</v>
       </c>
       <c r="H221" t="n">
         <v>371.76</v>
@@ -9178,7 +9178,7 @@
         <v>371.82</v>
       </c>
       <c r="G222" t="n">
-        <v>358.38</v>
+        <v>358</v>
       </c>
       <c r="H222" t="n">
         <v>367.43</v>
@@ -9250,7 +9250,7 @@
         <v>375.48</v>
       </c>
       <c r="G224" t="n">
-        <v>368.04</v>
+        <v>368.69</v>
       </c>
       <c r="H224" t="n">
         <v>370.48</v>
@@ -9292,7 +9292,7 @@
         <v>368.35</v>
       </c>
       <c r="G225" t="n">
-        <v>356.12</v>
+        <v>355.52</v>
       </c>
       <c r="H225" t="n">
         <v>369.82</v>
@@ -9334,7 +9334,7 @@
         <v>359.18</v>
       </c>
       <c r="G226" t="n">
-        <v>354.61</v>
+        <v>353.88</v>
       </c>
       <c r="H226" t="n">
         <v>370.38</v>
@@ -9376,7 +9376,7 @@
         <v>375.88</v>
       </c>
       <c r="G227" t="n">
-        <v>364.8</v>
+        <v>365.27</v>
       </c>
       <c r="H227" t="n">
         <v>367.11</v>
@@ -9418,7 +9418,7 @@
         <v>380.84</v>
       </c>
       <c r="G228" t="n">
-        <v>367.61</v>
+        <v>367.54</v>
       </c>
       <c r="H228" t="n">
         <v>368.68</v>
@@ -9460,7 +9460,7 @@
         <v>373.63</v>
       </c>
       <c r="G229" t="n">
-        <v>361.12</v>
+        <v>361.19</v>
       </c>
       <c r="H229" t="n">
         <v>364.8</v>
@@ -9528,7 +9528,7 @@
         <v>366.89</v>
       </c>
       <c r="G231" t="n">
-        <v>348.54</v>
+        <v>349.04</v>
       </c>
       <c r="H231" t="n">
         <v>352.35</v>
@@ -9570,7 +9570,7 @@
         <v>365.08</v>
       </c>
       <c r="G232" t="n">
-        <v>350.16</v>
+        <v>349.56</v>
       </c>
       <c r="H232" t="n">
         <v>362.35</v>
@@ -9612,7 +9612,7 @@
         <v>364.84</v>
       </c>
       <c r="G233" t="n">
-        <v>354.72</v>
+        <v>355.25</v>
       </c>
       <c r="H233" t="n">
         <v>351.61</v>
@@ -9654,7 +9654,7 @@
         <v>355.12</v>
       </c>
       <c r="G234" t="n">
-        <v>362.37</v>
+        <v>362.46</v>
       </c>
       <c r="H234" t="n">
         <v>353.39</v>
@@ -9696,7 +9696,7 @@
         <v>376.71</v>
       </c>
       <c r="G235" t="n">
-        <v>371.87</v>
+        <v>371.7</v>
       </c>
       <c r="H235" t="n">
         <v>372.07</v>
@@ -9738,7 +9738,7 @@
         <v>377.48</v>
       </c>
       <c r="G236" t="n">
-        <v>374.64</v>
+        <v>374.91</v>
       </c>
       <c r="H236" t="n">
         <v>375.47</v>
@@ -9780,7 +9780,7 @@
         <v>378.37</v>
       </c>
       <c r="G237" t="n">
-        <v>372.52</v>
+        <v>372.42</v>
       </c>
       <c r="H237" t="n">
         <v>371.74</v>
@@ -9822,7 +9822,7 @@
         <v>374.45</v>
       </c>
       <c r="G238" t="n">
-        <v>371.43</v>
+        <v>371.18</v>
       </c>
       <c r="H238" t="n">
         <v>364.64</v>
@@ -9864,7 +9864,7 @@
         <v>382.85</v>
       </c>
       <c r="G239" t="n">
-        <v>372.89</v>
+        <v>372.29</v>
       </c>
       <c r="H239" t="n">
         <v>371.27</v>
@@ -9906,7 +9906,7 @@
         <v>368.6</v>
       </c>
       <c r="G240" t="n">
-        <v>362.39</v>
+        <v>362.89</v>
       </c>
       <c r="H240" t="n">
         <v>357.98</v>
@@ -9948,7 +9948,7 @@
         <v>374.32</v>
       </c>
       <c r="G241" t="n">
-        <v>363.16</v>
+        <v>363.5</v>
       </c>
       <c r="H241" t="n">
         <v>364.35</v>
@@ -9984,7 +9984,7 @@
         <v>380.46</v>
       </c>
       <c r="G242" t="n">
-        <v>366.17</v>
+        <v>365.54</v>
       </c>
       <c r="H242" t="n">
         <v>390.02</v>
@@ -10066,7 +10066,7 @@
         <v>380.51</v>
       </c>
       <c r="G244" t="n">
-        <v>369.59</v>
+        <v>369.44</v>
       </c>
       <c r="H244" t="n">
         <v>383.28</v>
@@ -10108,7 +10108,7 @@
         <v>379.89</v>
       </c>
       <c r="G245" t="n">
-        <v>370.52</v>
+        <v>370.09</v>
       </c>
       <c r="H245" t="n">
         <v>376.26</v>
@@ -10150,7 +10150,7 @@
         <v>377.98</v>
       </c>
       <c r="G246" t="n">
-        <v>364.76</v>
+        <v>364.15</v>
       </c>
       <c r="H246" t="n">
         <v>372.4</v>
@@ -10192,7 +10192,7 @@
         <v>372.68</v>
       </c>
       <c r="G247" t="n">
-        <v>366.91</v>
+        <v>367.46</v>
       </c>
       <c r="H247" t="n">
         <v>363.91</v>
@@ -10234,7 +10234,7 @@
         <v>374.24</v>
       </c>
       <c r="G248" t="n">
-        <v>356.92</v>
+        <v>356.67</v>
       </c>
       <c r="H248" t="n">
         <v>363.67</v>
@@ -10266,7 +10266,7 @@
         <v>377.71</v>
       </c>
       <c r="G249" t="n">
-        <v>364.35</v>
+        <v>364.28</v>
       </c>
       <c r="H249" t="n">
         <v>350.63</v>
@@ -10330,7 +10330,7 @@
         <v>355.94</v>
       </c>
       <c r="G251" t="n">
-        <v>351.11</v>
+        <v>351.73</v>
       </c>
       <c r="H251" t="n">
         <v>342.28</v>
@@ -10372,7 +10372,7 @@
         <v>360.74</v>
       </c>
       <c r="G252" t="n">
-        <v>354.28</v>
+        <v>354.91</v>
       </c>
       <c r="H252" t="n">
         <v>337.71</v>
@@ -10414,7 +10414,7 @@
         <v>383.42</v>
       </c>
       <c r="G253" t="n">
-        <v>355.73</v>
+        <v>355.18</v>
       </c>
       <c r="H253" t="n">
         <v>383.9</v>
@@ -10456,7 +10456,7 @@
         <v>361.44</v>
       </c>
       <c r="G254" t="n">
-        <v>341.24</v>
+        <v>340.67</v>
       </c>
       <c r="H254" t="n">
         <v>360</v>
@@ -10498,7 +10498,7 @@
         <v>370.96</v>
       </c>
       <c r="G255" t="n">
-        <v>367.42</v>
+        <v>368.01</v>
       </c>
       <c r="H255" t="n">
         <v>363.84</v>
@@ -10540,7 +10540,7 @@
         <v>376.19</v>
       </c>
       <c r="G256" t="n">
-        <v>371.14</v>
+        <v>371.58</v>
       </c>
       <c r="H256" t="n">
         <v>374.26</v>
@@ -10582,7 +10582,7 @@
         <v>372.34</v>
       </c>
       <c r="G257" t="n">
-        <v>368.76</v>
+        <v>369.16</v>
       </c>
       <c r="H257" t="n">
         <v>372.3</v>
@@ -10624,7 +10624,7 @@
         <v>376.32</v>
       </c>
       <c r="G258" t="n">
-        <v>375.87</v>
+        <v>375.5</v>
       </c>
       <c r="H258" t="n">
         <v>378.05</v>
@@ -10666,7 +10666,7 @@
         <v>381.15</v>
       </c>
       <c r="G259" t="n">
-        <v>378.18</v>
+        <v>377.86</v>
       </c>
       <c r="H259" t="n">
         <v>390.23</v>
@@ -10708,7 +10708,7 @@
         <v>373.24</v>
       </c>
       <c r="G260" t="n">
-        <v>369.3</v>
+        <v>369.36</v>
       </c>
       <c r="H260" t="n">
         <v>369.73</v>
@@ -10750,7 +10750,7 @@
         <v>384.41</v>
       </c>
       <c r="G261" t="n">
-        <v>380.57</v>
+        <v>380.01</v>
       </c>
       <c r="H261" t="n">
         <v>389.47</v>
@@ -10792,7 +10792,7 @@
         <v>375.5</v>
       </c>
       <c r="G262" t="n">
-        <v>381.54</v>
+        <v>381.81</v>
       </c>
       <c r="H262" t="n">
         <v>377.15</v>
@@ -10834,7 +10834,7 @@
         <v>375.51</v>
       </c>
       <c r="G263" t="n">
-        <v>371.69</v>
+        <v>372.04</v>
       </c>
       <c r="H263" t="n">
         <v>376.03</v>
@@ -10872,7 +10872,7 @@
         <v>378.65</v>
       </c>
       <c r="G264" t="n">
-        <v>365.17</v>
+        <v>365.02</v>
       </c>
       <c r="H264" t="n">
         <v>353.71</v>
@@ -10910,7 +10910,7 @@
         <v>384.6</v>
       </c>
       <c r="G265" t="n">
-        <v>377.41</v>
+        <v>376.88</v>
       </c>
       <c r="H265" t="n">
         <v>376.85</v>
@@ -10944,7 +10944,7 @@
         <v>369.97</v>
       </c>
       <c r="G266" t="n">
-        <v>358.83</v>
+        <v>359.5</v>
       </c>
       <c r="H266" t="n">
         <v>349.74</v>
@@ -10986,7 +10986,7 @@
         <v>368.32</v>
       </c>
       <c r="G267" t="n">
-        <v>362.73</v>
+        <v>362.12</v>
       </c>
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
@@ -11018,7 +11018,7 @@
         <v>356.73</v>
       </c>
       <c r="G268" t="n">
-        <v>359.03</v>
+        <v>358.46</v>
       </c>
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
@@ -11052,7 +11052,7 @@
         <v>376.76</v>
       </c>
       <c r="G269" t="n">
-        <v>370.76</v>
+        <v>370.62</v>
       </c>
       <c r="H269" t="n">
         <v>368.18</v>
@@ -11118,7 +11118,7 @@
         <v>375.18</v>
       </c>
       <c r="G271" t="n">
-        <v>370.51</v>
+        <v>370.65</v>
       </c>
       <c r="H271" t="n">
         <v>384.84</v>
@@ -11154,7 +11154,7 @@
         <v>368.19</v>
       </c>
       <c r="G272" t="n">
-        <v>369.27</v>
+        <v>369.14</v>
       </c>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
@@ -11188,7 +11188,7 @@
         <v>370.76</v>
       </c>
       <c r="G273" t="n">
-        <v>365</v>
+        <v>365.3</v>
       </c>
       <c r="H273" t="n">
         <v>356.93</v>
@@ -11230,7 +11230,7 @@
         <v>368.04</v>
       </c>
       <c r="G274" t="n">
-        <v>365.27</v>
+        <v>365.92</v>
       </c>
       <c r="H274" t="n">
         <v>353.14</v>
@@ -11272,7 +11272,7 @@
         <v>387.69</v>
       </c>
       <c r="G275" t="n">
-        <v>377.6</v>
+        <v>376.73</v>
       </c>
       <c r="H275" t="n">
         <v>363.74</v>
@@ -11314,7 +11314,7 @@
         <v>382.75</v>
       </c>
       <c r="G276" t="n">
-        <v>376.59</v>
+        <v>376.39</v>
       </c>
       <c r="H276" t="n">
         <v>377.15</v>
@@ -11356,7 +11356,7 @@
         <v>371.85</v>
       </c>
       <c r="G277" t="n">
-        <v>363.76</v>
+        <v>364.21</v>
       </c>
       <c r="H277" t="n">
         <v>366.63</v>
@@ -11398,7 +11398,7 @@
         <v>365.89</v>
       </c>
       <c r="G278" t="n">
-        <v>366.51</v>
+        <v>365.67</v>
       </c>
       <c r="H278" t="n">
         <v>372.93</v>
@@ -11436,7 +11436,7 @@
         <v>368</v>
       </c>
       <c r="G279" t="n">
-        <v>358.21</v>
+        <v>358.48</v>
       </c>
       <c r="H279" t="n">
         <v>363.24</v>
@@ -11478,7 +11478,7 @@
         <v>380.43</v>
       </c>
       <c r="G280" t="n">
-        <v>369.86</v>
+        <v>369.76</v>
       </c>
       <c r="H280" t="n">
         <v>381.22</v>
@@ -11520,7 +11520,7 @@
         <v>380.33</v>
       </c>
       <c r="G281" t="n">
-        <v>377.33</v>
+        <v>377.28</v>
       </c>
       <c r="H281" t="n">
         <v>381.48</v>
@@ -11562,7 +11562,7 @@
         <v>371.29</v>
       </c>
       <c r="G282" t="n">
-        <v>363.12</v>
+        <v>363.77</v>
       </c>
       <c r="H282" t="n">
         <v>360.95</v>
@@ -11604,7 +11604,7 @@
         <v>372.48</v>
       </c>
       <c r="G283" t="n">
-        <v>371.66</v>
+        <v>371.01</v>
       </c>
       <c r="H283" t="n">
         <v>348.77</v>
@@ -11646,7 +11646,7 @@
         <v>372.04</v>
       </c>
       <c r="G284" t="n">
-        <v>367.78</v>
+        <v>367.31</v>
       </c>
       <c r="H284" t="n">
         <v>358.24</v>
@@ -11688,7 +11688,7 @@
         <v>369.12</v>
       </c>
       <c r="G285" t="n">
-        <v>365.61</v>
+        <v>366.06</v>
       </c>
       <c r="H285" t="n">
         <v>359.27</v>
@@ -11730,7 +11730,7 @@
         <v>379.2</v>
       </c>
       <c r="G286" t="n">
-        <v>371.97</v>
+        <v>372.02</v>
       </c>
       <c r="H286" t="n">
         <v>376.55</v>
@@ -11772,7 +11772,7 @@
         <v>375.87</v>
       </c>
       <c r="G287" t="n">
-        <v>372.43</v>
+        <v>372.56</v>
       </c>
       <c r="H287" t="n">
         <v>377.56</v>
@@ -11814,7 +11814,7 @@
         <v>381.12</v>
       </c>
       <c r="G288" t="n">
-        <v>372.76</v>
+        <v>372.46</v>
       </c>
       <c r="H288" t="n">
         <v>373.77</v>
@@ -11856,7 +11856,7 @@
         <v>370.15</v>
       </c>
       <c r="G289" t="n">
-        <v>366.9</v>
+        <v>367.25</v>
       </c>
       <c r="H289" t="n">
         <v>357.33</v>
@@ -11898,7 +11898,7 @@
         <v>370.64</v>
       </c>
       <c r="G290" t="n">
-        <v>368.16</v>
+        <v>368.31</v>
       </c>
       <c r="H290" t="n">
         <v>370.8</v>
@@ -11940,7 +11940,7 @@
         <v>379.41</v>
       </c>
       <c r="G291" t="n">
-        <v>371.6</v>
+        <v>371.52</v>
       </c>
       <c r="H291" t="n">
         <v>376.88</v>
@@ -11982,7 +11982,7 @@
         <v>367.85</v>
       </c>
       <c r="G292" t="n">
-        <v>359.78</v>
+        <v>359.82</v>
       </c>
       <c r="H292" t="n">
         <v>356.28</v>
@@ -12024,7 +12024,7 @@
         <v>378.94</v>
       </c>
       <c r="G293" t="n">
-        <v>368.34</v>
+        <v>368.36</v>
       </c>
       <c r="H293" t="n">
         <v>365.21</v>
@@ -12066,7 +12066,7 @@
         <v>379.8</v>
       </c>
       <c r="G294" t="n">
-        <v>370.58</v>
+        <v>370.36</v>
       </c>
       <c r="H294" t="n">
         <v>364.61</v>
@@ -12108,7 +12108,7 @@
         <v>363.83</v>
       </c>
       <c r="G295" t="n">
-        <v>369.69</v>
+        <v>369.94</v>
       </c>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
@@ -12142,7 +12142,7 @@
         <v>383.22</v>
       </c>
       <c r="G296" t="n">
-        <v>371.21</v>
+        <v>370.69</v>
       </c>
       <c r="H296" t="n">
         <v>358.48</v>
@@ -12184,7 +12184,7 @@
         <v>371.97</v>
       </c>
       <c r="G297" t="n">
-        <v>366.67</v>
+        <v>367.34</v>
       </c>
       <c r="H297" t="n">
         <v>374.68</v>
@@ -12216,7 +12216,7 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="n">
-        <v>367.12</v>
+        <v>366.85</v>
       </c>
       <c r="H298" t="n">
         <v>343.56</v>
@@ -12288,7 +12288,7 @@
         <v>374.29</v>
       </c>
       <c r="G300" t="n">
-        <v>376.21</v>
+        <v>376.61</v>
       </c>
       <c r="H300" t="n">
         <v>373.03</v>
@@ -12328,7 +12328,7 @@
         <v>372.33</v>
       </c>
       <c r="G301" t="n">
-        <v>367.76</v>
+        <v>368.24</v>
       </c>
       <c r="H301" t="n">
         <v>373.53</v>
@@ -12370,7 +12370,7 @@
         <v>374.58</v>
       </c>
       <c r="G302" t="n">
-        <v>386.24</v>
+        <v>385.29</v>
       </c>
       <c r="H302" t="n">
         <v>388.2</v>
@@ -12406,7 +12406,7 @@
         <v>374.88</v>
       </c>
       <c r="G303" t="n">
-        <v>377.95</v>
+        <v>378.42</v>
       </c>
       <c r="H303" t="n">
         <v>371.21</v>
@@ -12448,7 +12448,7 @@
         <v>360.95</v>
       </c>
       <c r="G304" t="n">
-        <v>360.86</v>
+        <v>359.9</v>
       </c>
       <c r="H304" t="n">
         <v>368.54</v>
@@ -12490,7 +12490,7 @@
         <v>369.05</v>
       </c>
       <c r="G305" t="n">
-        <v>365.41</v>
+        <v>365.88</v>
       </c>
       <c r="H305" t="n">
         <v>367.15</v>
@@ -12532,7 +12532,7 @@
         <v>363.62</v>
       </c>
       <c r="G306" t="n">
-        <v>353.93</v>
+        <v>353.63</v>
       </c>
       <c r="H306" t="n">
         <v>350.02</v>
@@ -12574,7 +12574,7 @@
         <v>373.17</v>
       </c>
       <c r="G307" t="n">
-        <v>371.17</v>
+        <v>371.19</v>
       </c>
       <c r="H307" t="n">
         <v>359.17</v>
@@ -12616,7 +12616,7 @@
         <v>375.59</v>
       </c>
       <c r="G308" t="n">
-        <v>368.4</v>
+        <v>368.12</v>
       </c>
       <c r="H308" t="n">
         <v>363.17</v>
@@ -12658,7 +12658,7 @@
         <v>383.02</v>
       </c>
       <c r="G309" t="n">
-        <v>375.62</v>
+        <v>375.27</v>
       </c>
       <c r="H309" t="n">
         <v>366.03</v>
@@ -12700,7 +12700,7 @@
         <v>376.34</v>
       </c>
       <c r="G310" t="n">
-        <v>369.11</v>
+        <v>369.36</v>
       </c>
       <c r="H310" t="n">
         <v>367.52</v>
@@ -12774,7 +12774,7 @@
         <v>380.39</v>
       </c>
       <c r="G312" t="n">
-        <v>377.58</v>
+        <v>376.95</v>
       </c>
       <c r="H312" t="n">
         <v>367.44</v>
@@ -12816,7 +12816,7 @@
         <v>375.98</v>
       </c>
       <c r="G313" t="n">
-        <v>367.14</v>
+        <v>366.86</v>
       </c>
       <c r="H313" t="n">
         <v>361.27</v>
@@ -12858,7 +12858,7 @@
         <v>375.63</v>
       </c>
       <c r="G314" t="n">
-        <v>393.33</v>
+        <v>393.85</v>
       </c>
       <c r="H314" t="n">
         <v>371.64</v>
@@ -12926,7 +12926,7 @@
         <v>380.53</v>
       </c>
       <c r="G316" t="n">
-        <v>371.28</v>
+        <v>371.16</v>
       </c>
       <c r="H316" t="n">
         <v>365.46</v>
@@ -12968,7 +12968,7 @@
         <v>379.64</v>
       </c>
       <c r="G317" t="n">
-        <v>369.94</v>
+        <v>369.92</v>
       </c>
       <c r="H317" t="n">
         <v>361.37</v>
@@ -13010,7 +13010,7 @@
         <v>375.11</v>
       </c>
       <c r="G318" t="n">
-        <v>373.99</v>
+        <v>374.51</v>
       </c>
       <c r="H318" t="n">
         <v>374.72</v>
@@ -13052,7 +13052,7 @@
         <v>384.63</v>
       </c>
       <c r="G319" t="n">
-        <v>377.78</v>
+        <v>376.99</v>
       </c>
       <c r="H319" t="n">
         <v>352.31</v>
@@ -13094,7 +13094,7 @@
         <v>374.13</v>
       </c>
       <c r="G320" t="n">
-        <v>371.9</v>
+        <v>372.43</v>
       </c>
       <c r="H320" t="n">
         <v>367.69</v>
@@ -13166,7 +13166,7 @@
         <v>380.78</v>
       </c>
       <c r="G322" t="n">
-        <v>373.22</v>
+        <v>372.71</v>
       </c>
       <c r="H322" t="n">
         <v>358.52</v>
@@ -13208,7 +13208,7 @@
         <v>380.13</v>
       </c>
       <c r="G323" t="n">
-        <v>372.66</v>
+        <v>372.11</v>
       </c>
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
@@ -13242,7 +13242,7 @@
         <v>371.8</v>
       </c>
       <c r="G324" t="n">
-        <v>366.39</v>
+        <v>366.1</v>
       </c>
       <c r="H324" t="n">
         <v>344.22</v>
@@ -13308,7 +13308,7 @@
         <v>376.88</v>
       </c>
       <c r="G326" t="n">
-        <v>370.06</v>
+        <v>370.58</v>
       </c>
       <c r="H326" t="n">
         <v>363.8</v>
@@ -13350,7 +13350,7 @@
         <v>378.57</v>
       </c>
       <c r="G327" t="n">
-        <v>370.9</v>
+        <v>371.18</v>
       </c>
       <c r="H327" t="n">
         <v>364.15</v>
@@ -13392,7 +13392,7 @@
         <v>380.85</v>
       </c>
       <c r="G328" t="n">
-        <v>368.87</v>
+        <v>369.32</v>
       </c>
       <c r="H328" t="n">
         <v>370.86</v>
@@ -13434,7 +13434,7 @@
         <v>362.81</v>
       </c>
       <c r="G329" t="n">
-        <v>359.38</v>
+        <v>359.88</v>
       </c>
       <c r="H329" t="n">
         <v>345.81</v>
@@ -13476,7 +13476,7 @@
         <v>363.52</v>
       </c>
       <c r="G330" t="n">
-        <v>361.67</v>
+        <v>361.95</v>
       </c>
       <c r="H330" t="n">
         <v>352.37</v>
@@ -13518,7 +13518,7 @@
         <v>380.72</v>
       </c>
       <c r="G331" t="n">
-        <v>378.2</v>
+        <v>377.88</v>
       </c>
       <c r="H331" t="n">
         <v>376.09</v>
@@ -13560,7 +13560,7 @@
         <v>366.43</v>
       </c>
       <c r="G332" t="n">
-        <v>370</v>
+        <v>369.75</v>
       </c>
       <c r="H332" t="n">
         <v>355.12</v>
@@ -13596,7 +13596,7 @@
         <v>376.01</v>
       </c>
       <c r="G333" t="n">
-        <v>368.12</v>
+        <v>368.22</v>
       </c>
       <c r="H333" t="n">
         <v>373.02</v>
@@ -13638,7 +13638,7 @@
         <v>377.91</v>
       </c>
       <c r="G334" t="n">
-        <v>370.7</v>
+        <v>370.63</v>
       </c>
       <c r="H334" t="n">
         <v>373.52</v>
@@ -13680,7 +13680,7 @@
         <v>377.31</v>
       </c>
       <c r="G335" t="n">
-        <v>373.31</v>
+        <v>372.87</v>
       </c>
       <c r="H335" t="n">
         <v>366.63</v>
@@ -13762,7 +13762,7 @@
         <v>370.4</v>
       </c>
       <c r="G337" t="n">
-        <v>368</v>
+        <v>367.05</v>
       </c>
       <c r="H337" t="n">
         <v>343.9</v>
@@ -13804,7 +13804,7 @@
         <v>376.21</v>
       </c>
       <c r="G338" t="n">
-        <v>365.78</v>
+        <v>366.13</v>
       </c>
       <c r="H338" t="n">
         <v>368.37</v>
@@ -13846,7 +13846,7 @@
         <v>374.31</v>
       </c>
       <c r="G339" t="n">
-        <v>368.07</v>
+        <v>368.57</v>
       </c>
       <c r="H339" t="n">
         <v>368.32</v>
@@ -13888,7 +13888,7 @@
         <v>382</v>
       </c>
       <c r="G340" t="n">
-        <v>371.85</v>
+        <v>371.56</v>
       </c>
       <c r="H340" t="n">
         <v>366.23</v>
@@ -13930,7 +13930,7 @@
         <v>372.9</v>
       </c>
       <c r="G341" t="n">
-        <v>376.58</v>
+        <v>376.36</v>
       </c>
       <c r="H341" t="n">
         <v>391.84</v>
@@ -13968,7 +13968,7 @@
         <v>373.21</v>
       </c>
       <c r="G342" t="n">
-        <v>363.79</v>
+        <v>364.33</v>
       </c>
       <c r="H342" t="n">
         <v>360.64</v>
@@ -14010,7 +14010,7 @@
         <v>376.54</v>
       </c>
       <c r="G343" t="n">
-        <v>375.61</v>
+        <v>374.96</v>
       </c>
       <c r="H343" t="n">
         <v>367.87</v>
@@ -14052,7 +14052,7 @@
         <v>382.1</v>
       </c>
       <c r="G344" t="n">
-        <v>373.95</v>
+        <v>373.4</v>
       </c>
       <c r="H344" t="n">
         <v>374.57</v>
@@ -14094,7 +14094,7 @@
         <v>382.03</v>
       </c>
       <c r="G345" t="n">
-        <v>371.93</v>
+        <v>371.75</v>
       </c>
       <c r="H345" t="n">
         <v>367.61</v>
@@ -14130,7 +14130,7 @@
         <v>378.43</v>
       </c>
       <c r="G346" t="n">
-        <v>367.58</v>
+        <v>367.57</v>
       </c>
       <c r="H346" t="n">
         <v>360.73</v>
@@ -14168,7 +14168,7 @@
         <v>373.32</v>
       </c>
       <c r="G347" t="n">
-        <v>366.17</v>
+        <v>366</v>
       </c>
       <c r="H347" t="n">
         <v>360.23</v>
@@ -14210,7 +14210,7 @@
         <v>373.98</v>
       </c>
       <c r="G348" t="n">
-        <v>363.61</v>
+        <v>364.15</v>
       </c>
       <c r="H348" t="n">
         <v>358.68</v>
@@ -14282,7 +14282,7 @@
         <v>376.09</v>
       </c>
       <c r="G350" t="n">
-        <v>371.82</v>
+        <v>371.3</v>
       </c>
       <c r="H350" t="n">
         <v>366.72</v>
@@ -14320,7 +14320,7 @@
         <v>380.98</v>
       </c>
       <c r="G351" t="n">
-        <v>370.59</v>
+        <v>370.3</v>
       </c>
       <c r="H351" t="n">
         <v>362.9</v>
@@ -14362,7 +14362,7 @@
         <v>372.71</v>
       </c>
       <c r="G352" t="n">
-        <v>368.73</v>
+        <v>369.06</v>
       </c>
       <c r="H352" t="n">
         <v>367.74</v>
@@ -14404,7 +14404,7 @@
         <v>371.69</v>
       </c>
       <c r="G353" t="n">
-        <v>365.88</v>
+        <v>366.31</v>
       </c>
       <c r="H353" t="n">
         <v>367.56</v>
@@ -14446,7 +14446,7 @@
         <v>368.53</v>
       </c>
       <c r="G354" t="n">
-        <v>375.19</v>
+        <v>374.44</v>
       </c>
       <c r="H354" t="n">
         <v>371.69</v>
@@ -14488,7 +14488,7 @@
         <v>374.09</v>
       </c>
       <c r="G355" t="n">
-        <v>366.91</v>
+        <v>367.43</v>
       </c>
       <c r="H355" t="n">
         <v>369.67</v>
@@ -14530,7 +14530,7 @@
         <v>383.89</v>
       </c>
       <c r="G356" t="n">
-        <v>377.5</v>
+        <v>377.03</v>
       </c>
       <c r="H356" t="n">
         <v>378.3</v>
@@ -14572,7 +14572,7 @@
         <v>385.96</v>
       </c>
       <c r="G357" t="n">
-        <v>382.11</v>
+        <v>381.73</v>
       </c>
       <c r="H357" t="n">
         <v>392.61</v>
@@ -14614,7 +14614,7 @@
         <v>367.72</v>
       </c>
       <c r="G358" t="n">
-        <v>364.47</v>
+        <v>364.18</v>
       </c>
       <c r="H358" t="n">
         <v>360.6</v>
@@ -14698,7 +14698,7 @@
         <v>376.97</v>
       </c>
       <c r="G360" t="n">
-        <v>371.22</v>
+        <v>371.56</v>
       </c>
       <c r="H360" t="n">
         <v>376.84</v>
@@ -14740,7 +14740,7 @@
         <v>383.05</v>
       </c>
       <c r="G361" t="n">
-        <v>373.37</v>
+        <v>372.85</v>
       </c>
       <c r="H361" t="n">
         <v>384.11</v>
@@ -14774,7 +14774,7 @@
         <v>377.22</v>
       </c>
       <c r="G362" t="n">
-        <v>370.47</v>
+        <v>371</v>
       </c>
       <c r="H362" t="n">
         <v>373</v>
@@ -14816,7 +14816,7 @@
         <v>366.14</v>
       </c>
       <c r="G363" t="n">
-        <v>369.93</v>
+        <v>369.68</v>
       </c>
       <c r="H363" t="n">
         <v>363.42</v>
@@ -14858,7 +14858,7 @@
         <v>361.52</v>
       </c>
       <c r="G364" t="n">
-        <v>361.49</v>
+        <v>361.35</v>
       </c>
       <c r="H364" t="n">
         <v>360.73</v>
@@ -14894,7 +14894,7 @@
         <v>371.89</v>
       </c>
       <c r="G365" t="n">
-        <v>365.22</v>
+        <v>364.93</v>
       </c>
       <c r="H365" t="n">
         <v>364.01</v>
@@ -14936,7 +14936,7 @@
         <v>368.42</v>
       </c>
       <c r="G366" t="n">
-        <v>355.9</v>
+        <v>355.25</v>
       </c>
       <c r="H366" t="n">
         <v>347.59</v>
@@ -14978,7 +14978,7 @@
         <v>371.15</v>
       </c>
       <c r="G367" t="n">
-        <v>368.83</v>
+        <v>369.41</v>
       </c>
       <c r="H367" t="n">
         <v>361.33</v>
@@ -15020,7 +15020,7 @@
         <v>369.47</v>
       </c>
       <c r="G368" t="n">
-        <v>363</v>
+        <v>363.73</v>
       </c>
       <c r="H368" t="n">
         <v>357.43</v>
@@ -15062,7 +15062,7 @@
         <v>379.37</v>
       </c>
       <c r="G369" t="n">
-        <v>373.66</v>
+        <v>373.83</v>
       </c>
       <c r="H369" t="n">
         <v>377.45</v>
@@ -15104,7 +15104,7 @@
         <v>380.04</v>
       </c>
       <c r="G370" t="n">
-        <v>371.82</v>
+        <v>371.3</v>
       </c>
       <c r="H370" t="n">
         <v>360.39</v>
@@ -15146,7 +15146,7 @@
         <v>376.41</v>
       </c>
       <c r="G371" t="n">
-        <v>370.42</v>
+        <v>370.14</v>
       </c>
       <c r="H371" t="n">
         <v>361.48</v>
@@ -15186,7 +15186,7 @@
         <v>369.98</v>
       </c>
       <c r="G372" t="n">
-        <v>364.92</v>
+        <v>365.27</v>
       </c>
       <c r="H372" t="n">
         <v>362.99</v>
@@ -19648,7 +19648,7 @@
         <v>0.0876</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1498632556027811</v>
+        <v>0.1476832971498399</v>
       </c>
       <c r="J7" t="n">
         <v>371</v>
@@ -19657,19 +19657,19 @@
         <v>329</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01783648250100345</v>
+        <v>0.01735005707560167</v>
       </c>
       <c r="M7" t="n">
-        <v>6.158547420501526</v>
+        <v>6.114609793962949</v>
       </c>
       <c r="N7" t="n">
-        <v>66.81503532028975</v>
+        <v>66.73750638171761</v>
       </c>
       <c r="O7" t="n">
-        <v>8.174046447157599</v>
+        <v>8.169302686381354</v>
       </c>
       <c r="P7" t="n">
-        <v>364.9633224856038</v>
+        <v>364.9623289712026</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20156,7 +20156,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-36.72638032734999,175.70656806972346</t>
+          <t>-36.72637517299828,175.70656700708506</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -20218,7 +20218,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-36.726355088800005,175.70656286646104</t>
+          <t>-36.72635953220672,175.7065637825281</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -20280,7 +20280,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-36.72635535540442,175.70656292142507</t>
+          <t>-36.72635499993187,175.7065628481397</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -20342,7 +20342,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-36.72641978480043,175.7065762044092</t>
+          <t>-36.726416941020254,175.70657561812524</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -20404,7 +20404,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-36.7264396912615,175.70658030839843</t>
+          <t>-36.72643613653632,175.70657957554303</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -20466,7 +20466,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-36.726439335788974,175.70658023511288</t>
+          <t>-36.72643427030561,175.706579190794</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -20528,7 +20528,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-36.72641134232803,175.70657446387878</t>
+          <t>-36.72641418610822,175.70657505016268</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -20590,7 +20590,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-36.726625070166264,175.7066185269152</t>
+          <t>-36.72662906923152,175.7066193513822</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -20652,7 +20652,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-36.72631394285311,175.70655438368598</t>
+          <t>-36.72632265193053,175.7065561791753</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-36.726359709943004,175.70656381917078</t>
+          <t>-36.72635819918472,175.70656350770795</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-36.726473994358884,175.70658738045702</t>
+          <t>-36.726473283413874,175.70658723388578</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -20826,7 +20826,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-36.7264069877896,175.70657356613168</t>
+          <t>-36.72640992043793,175.70657417073687</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -20888,7 +20888,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-36.72641187553681,175.70657457380702</t>
+          <t>-36.726409653833535,175.70657411577275</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -20950,7 +20950,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-36.72639214681162,175.70657050646392</t>
+          <t>-36.72638921416325,175.70656990185907</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -21012,7 +21012,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-36.72649523384105,175.70659175927415</t>
+          <t>-36.72650118800544,175.70659298680914</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -21074,7 +21074,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-36.72635428898681,175.70656270156897</t>
+          <t>-36.726359087866065,175.70656369092137</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -21136,7 +21136,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-36.7263514452065,175.70656211528615</t>
+          <t>-36.726348956898725,175.7065616022887</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -21198,7 +21198,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-36.72637001864655,175.7065659444468</t>
+          <t>-36.7263675303388,175.7065654314491</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -21244,7 +21244,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-36.726342824997396,175.70656033811662</t>
+          <t>-36.72633695970045,175.70655912890876</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -21306,7 +21306,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-36.72641934045979,175.70657611280234</t>
+          <t>-36.726420229141084,175.70657629601607</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -21368,7 +21368,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-36.72638130489946,175.70656827125836</t>
+          <t>-36.726383704339035,175.70656876593492</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -21430,7 +21430,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-36.72647781568834,175.70658816827748</t>
+          <t>-36.72647488304016,175.7065875636711</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -21492,7 +21492,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-36.726386370383004,175.70656931557562</t>
+          <t>-36.72638130489946,175.70656827125836</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -21546,7 +21546,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-36.72631181001781,175.70655394397437</t>
+          <t>-36.726310032655064,175.70655357754808</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -21608,7 +21608,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-36.72633900366757,175.70655955029937</t>
+          <t>-36.72633518233773,175.70655876248216</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -21670,7 +21670,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-36.726601075774425,175.70661358011543</t>
+          <t>-36.72660747427895,175.7066148992617</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -21720,7 +21720,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-36.72645959772226,175.7065844123901</t>
+          <t>-36.726454087898325,175.7065832764636</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -21846,7 +21846,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-36.726529092596444,175.70659873973727</t>
+          <t>-36.72652642655273,175.70659819009424</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -21896,7 +21896,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-36.72639987833909,175.70657210042242</t>
+          <t>-36.72639765663581,175.70657164238833</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -21996,7 +21996,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-36.72640316645996,175.70657277831293</t>
+          <t>-36.72640183343798,175.70657250349242</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -22046,7 +22046,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-36.72645728715093,175.70658393603378</t>
+          <t>-36.726458353568475,175.70658415589054</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-36.72641080911924,175.70657435395057</t>
+          <t>-36.726413652899424,175.70657494023442</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -22170,7 +22170,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-36.726470173029426,175.70658659263668</t>
+          <t>-36.72646795132625,175.7065861346016</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -22232,7 +22232,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-36.726457642623444,175.70658400931939</t>
+          <t>-36.72645470997522,175.70658340471334</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -22294,7 +22294,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-36.72658659027102,175.70661059371577</t>
+          <t>-36.726591922358175,175.70661169300382</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -22356,7 +22356,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-36.72627244143242,175.70654582763615</t>
+          <t>-36.726268620102395,175.70654503982053</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -22418,7 +22418,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-36.7264084096797,175.7065738592736</t>
+          <t>-36.72640769873465,175.70657371270264</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -22480,7 +22480,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-36.72640769873465,175.70657371270264</t>
+          <t>-36.72640725439399,175.7065736210958</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -22542,7 +22542,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-36.726455776392754,175.7065836245701</t>
+          <t>-36.72645862017285,175.70658421085474</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-36.72644591203052,175.70658159089555</t>
+          <t>-36.726449911096296,175.70658241535813</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -22654,7 +22654,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-36.72630247886337,175.70655202023647</t>
+          <t>-36.72630558924819,175.70655266148236</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-36.72637295129494,175.70656654905127</t>
+          <t>-36.72636699712999,175.706565321521</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -22816,7 +22816,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-36.72629767998391,175.70655103088575</t>
+          <t>-36.72629919074226,175.706551342348</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -22878,7 +22878,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-36.72633544894215,175.70655881744617</t>
+          <t>-36.726340958766556,175.70655995336864</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -22940,7 +22940,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-36.72647310567763,175.70658719724298</t>
+          <t>-36.726473283413874,175.70658723388578</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -23002,7 +23002,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-36.72644413466794,175.70658122446778</t>
+          <t>-36.726450710909454,175.70658258025065</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-36.726263376882116,175.70654395886436</t>
+          <t>-36.72625964442022,175.70654318937022</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -23126,7 +23126,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-36.72629030392841,175.70654951021731</t>
+          <t>-36.726294658467204,175.7065504079613</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -23188,7 +23188,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-36.726401566833594,175.70657244852833</t>
+          <t>-36.72640067815228,175.7065722653147</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -23250,7 +23250,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-36.72638983624019,175.70657003010857</t>
+          <t>-36.726392768888545,175.70657063471344</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -23312,7 +23312,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-36.72639650135009,175.7065714042106</t>
+          <t>-36.72639356870174,175.7065707996057</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -23350,7 +23350,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-36.72647275020512,175.70658712395738</t>
+          <t>-36.72647141718321,175.70658684913633</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -23404,7 +23404,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-36.726739887768765,175.70664219831735</t>
+          <t>-36.72674548645966,175.7066433525751</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -23462,7 +23462,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-36.72633082779907,175.7065578647371</t>
+          <t>-36.72632753967805,175.70655718684807</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -23508,7 +23508,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-36.72642609443768,175.70657750522696</t>
+          <t>-36.72642520575637,175.70657732201315</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -23570,7 +23570,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-36.72637001864655,175.7065659444468</t>
+          <t>-36.72637401771254,175.7065667689075</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -23632,7 +23632,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-36.72653371373884,175.70659969245193</t>
+          <t>-36.72654011224368,175.70660101159558</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -23694,7 +23694,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-36.726505098202935,175.70659379295165</t>
+          <t>-36.72650109913732,175.70659296848774</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -23752,7 +23752,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-36.72650758651043,175.70659430595148</t>
+          <t>-36.72650483159857,175.7065937379874</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -23814,7 +23814,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-36.72640636571269,175.70657343788213</t>
+          <t>-36.72640947609728,175.70657407913</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-36.726401922306124,175.7065725218138</t>
+          <t>-36.72640725439399,175.7065736210958</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -23938,7 +23938,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-36.72647612719393,175.70658782017077</t>
+          <t>-36.726470173029426,175.70658659263668</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -24000,7 +24000,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-36.7264394246571,175.70658025343428</t>
+          <t>-36.726436936349494,175.7065797404355</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -24062,7 +24062,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-36.72645364355768,175.7065831848566</t>
+          <t>-36.726451688458866,175.70658278178598</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -24158,7 +24158,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-36.726512651993524,175.70659535027266</t>
+          <t>-36.726519494839096,175.7065967610226</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -24238,7 +24238,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>-36.72643738069013,175.70657983204242</t>
+          <t>-36.7264430682504,175.70658100461114</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -24300,7 +24300,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-36.72649701120354,175.70659212570246</t>
+          <t>-36.72649256779727,175.70659120963168</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -24404,7 +24404,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>-36.726454887711476,175.70658344135614</t>
+          <t>-36.72645382129396,175.70658322149941</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -24466,7 +24466,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>-36.726503498576676,175.70659346316606</t>
+          <t>-36.72650927500479,175.7065946540585</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -24528,7 +24528,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>-36.72638699245994,175.70656944382512</t>
+          <t>-36.7263907249215,175.70657021332215</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>-36.72635846578912,175.706563562672</t>
+          <t>-36.72636113183315,175.70656411231224</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -24720,7 +24720,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>-36.726514251619754,175.70659568005834</t>
+          <t>-36.72651247425728,175.70659531362983</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -24816,7 +24816,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>-36.72630994378694,175.70655355922673</t>
+          <t>-36.72631065473203,175.70655370579726</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -24920,7 +24920,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>-36.726516473322874,175.70659613809403</t>
+          <t>-36.726512918597905,175.70659540523695</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -24974,7 +24974,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>-36.72641525252578,175.70657527001916</t>
+          <t>-36.72641774083343,175.70657578301757</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -25036,7 +25036,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>-36.72650376518107,175.70659351813032</t>
+          <t>-36.72650909726854,175.70659461741567</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -25098,7 +25098,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>-36.72641738536091,175.70657570973208</t>
+          <t>-36.72641116459177,175.70657442723606</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -25148,7 +25148,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>-36.72655788586808,175.7066046758847</t>
+          <t>-36.726556197373775,175.70660432777714</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -25210,7 +25210,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>-36.72652687089336,175.70659828170142</t>
+          <t>-36.726521805410314,175.70659723737978</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -25314,7 +25314,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>-36.726578236667734,175.70660887149816</t>
+          <t>-36.72658312441434,175.70660987917864</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -25418,7 +25418,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>-36.726436225404456,175.7065795938644</t>
+          <t>-36.72643249294301,175.70657882436632</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -25476,7 +25476,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>-36.72655406453886,175.70660388806238</t>
+          <t>-36.72655184283582,175.70660343002618</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -25538,7 +25538,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>-36.726530869958914,175.70659910616598</t>
+          <t>-36.72653335826635,175.70659961916618</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -25600,7 +25600,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-36.726580724975115,175.7066093844991</t>
+          <t>-36.72658401309555,175.70661006239325</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -25662,7 +25662,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>-36.72626710934402,175.70654472835855</t>
+          <t>-36.72626533198122,175.70654436193274</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -25712,7 +25712,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>-36.72643062671231,175.70657843961732</t>
+          <t>-36.72643738069013,175.70657983204242</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -25912,7 +25912,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>-36.72637703922908,175.70656739183343</t>
+          <t>-36.726375528470804,175.70656708037046</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -25974,7 +25974,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>-36.72638699245994,175.70656944382512</t>
+          <t>-36.72639143586656,175.70657035989302</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -26036,7 +26036,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>-36.726422895184996,175.70657684565737</t>
+          <t>-36.72641925159166,175.70657609448097</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -26098,7 +26098,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>-36.72645604299715,175.70658367953428</t>
+          <t>-36.72645017770069,175.70658247032233</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -26160,7 +26160,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>-36.72645799809595,175.70658408260496</t>
+          <t>-36.72645639846965,175.70658375281985</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>-36.72637286242681,175.70656653072996</t>
+          <t>-36.72637570620708,175.70656711701315</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -26276,7 +26276,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>-36.726337670645535,175.70655927547938</t>
+          <t>-36.72634238065671,175.70656024650995</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -26338,7 +26338,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>-36.72654553319916,175.70660212920356</t>
+          <t>-36.72655148736333,175.7066033567404</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -26400,7 +26400,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>-36.72646697377684,175.7065859330662</t>
+          <t>-36.726462530370476,175.70658501699623</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -26462,7 +26462,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>-36.72647754908396,175.70658811331325</t>
+          <t>-36.726475149644536,175.7065876186353</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -26562,7 +26562,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>-36.72644413466794,175.70658122446778</t>
+          <t>-36.726444401272325,175.70658127943196</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -26624,7 +26624,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>-36.726342025184174,175.70656017322463</t>
+          <t>-36.72633713743673,175.7065591655514</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -26686,7 +26686,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>-36.726427160855245,175.70657772508352</t>
+          <t>-36.726423339525645,175.70657693726423</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -26748,7 +26748,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>-36.72642236197621,175.7065767357291</t>
+          <t>-36.72642076234987,175.70657640594433</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -26810,7 +26810,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>-36.726509985949804,175.70659480062992</t>
+          <t>-36.72650963047729,175.7065947273442</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -26872,7 +26872,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>-36.72634931237127,175.70656167557405</t>
+          <t>-36.726348956898725,175.7065616022887</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -26934,7 +26934,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>-36.72658907857835,175.70661110671685</t>
+          <t>-36.72658463517239,175.70661019064354</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -26996,7 +26996,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>-36.72632407382072,175.70655647231644</t>
+          <t>-36.726326828732944,175.7065570402775</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -27100,7 +27100,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>-36.726445289953624,175.70658146264586</t>
+          <t>-36.72643951352524,175.70658027175566</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -27142,7 +27142,7 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>-36.7263813937676,175.7065682895797</t>
+          <t>-36.7263882366138,175.70656970032414</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -27204,7 +27204,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>-36.72644209070098,175.70658080307587</t>
+          <t>-36.72644146862407,175.70658067482614</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -27266,7 +27266,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>-36.726481192677134,175.70658886449095</t>
+          <t>-36.726476038325806,175.70658780184934</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -27358,7 +27358,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>-36.72643746955826,175.7065798503638</t>
+          <t>-36.726433292756184,175.7065789892588</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -27420,7 +27420,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>-36.72646804019438,175.70658615292302</t>
+          <t>-36.726473994358884,175.70658738045702</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -27482,7 +27482,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>-36.72643515898691,175.70657937400782</t>
+          <t>-36.7264415574922,175.70658069314754</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -27532,7 +27532,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>-36.726501543477944,175.70659306009483</t>
+          <t>-36.72649638912667,175.70659199745256</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -27582,7 +27582,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>-36.726422895184996,175.70657684565737</t>
+          <t>-36.726420229141084,175.70657629601607</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -27746,7 +27746,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>-36.726362464855164,175.7065643871324</t>
+          <t>-36.726364864294794,175.7065648818087</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -27808,7 +27808,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>-36.72637526186641,175.7065670254064</t>
+          <t>-36.72638148263572,175.70656830790105</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -27870,7 +27870,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>-36.726410453646714,175.7065742806651</t>
+          <t>-36.72640627684456,175.70657341956075</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
@@ -27916,7 +27916,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>-36.72647817116085,175.7065882415631</t>
+          <t>-36.72647363888638,175.70658730717142</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -27978,7 +27978,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>-36.726363442404626,175.70656458866716</t>
+          <t>-36.72636317580023,175.70656453370316</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -28040,7 +28040,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>-36.72637117393228,175.70656618262433</t>
+          <t>-36.72637144053667,175.70656623758836</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -28102,7 +28102,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>-36.72649070156665,175.70659082488197</t>
+          <t>-36.7264954115773,175.70659179591695</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -28152,7 +28152,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>-36.72644022447027,175.70658041832675</t>
+          <t>-36.726433737096826,175.70657908086568</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -28214,7 +28214,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>-36.72647959305087,175.70658853470562</t>
+          <t>-36.72648608042408,175.7065898721685</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -28276,7 +28276,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>-36.72643791389891,175.70657994197072</t>
+          <t>-36.726433292756184,175.7065789892588</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -28338,7 +28338,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>-36.72641649667961,175.70657552651838</t>
+          <t>-36.72642005140483,175.70657625937332</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -28458,7 +28458,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>-36.72646181942546,175.70658487042505</t>
+          <t>-36.72646981755692,175.70658651935108</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -28554,7 +28554,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>-36.726678568771725,175.70662955645935</t>
+          <t>-36.72668505614399,175.7066308939302</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -28616,7 +28616,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>-36.72637810564667,175.70656761168965</t>
+          <t>-36.72637472865761,175.70656691547828</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -28670,7 +28670,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>-36.72634877916246,175.70656156564604</t>
+          <t>-36.726355888613234,175.7065630313531</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -28732,7 +28732,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>-36.726450355436945,175.7065825069651</t>
+          <t>-36.72644653410742,175.7065817191453</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -28794,7 +28794,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>-36.72645479884335,175.70658342303474</t>
+          <t>-36.72645630960153,175.70658373449845</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -28856,7 +28856,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>-36.72643782503078,175.70657992364934</t>
+          <t>-36.72643738069013,175.70657983204242</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -28918,7 +28918,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>-36.726416052338955,175.70657543491149</t>
+          <t>-36.72641871838287,175.7065759845527</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -28980,7 +28980,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>-36.7263160756884,175.7065548233976</t>
+          <t>-36.72631980815016,175.706555592893</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -29042,7 +29042,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>-36.72632656212854,175.7065569853135</t>
+          <t>-36.72633296063434,175.70655830444898</t>
         </is>
       </c>
       <c r="H160" t="inlineStr"/>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>-36.72637783904226,175.7065675567256</t>
+          <t>-36.72637890545986,175.7065677765818</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -29200,7 +29200,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>-36.72645133298634,175.7065827085004</t>
+          <t>-36.72644662297555,175.7065817374667</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -29300,7 +29300,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>-36.72632780628244,175.70655724181205</t>
+          <t>-36.72633198308484,175.70655810291436</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -29362,7 +29362,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>-36.72643773616265,175.70657990532797</t>
+          <t>-36.72643222633862,175.70657876940217</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -29470,7 +29470,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>-36.726359709943004,175.70656381917078</t>
+          <t>-36.72636406448157,175.70656471691657</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -29532,7 +29532,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>-36.72643435917374,175.70657920911535</t>
+          <t>-36.72643213747049,175.7065787510808</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -29574,7 +29574,7 @@
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
-          <t>-36.72639063605336,175.70657019500078</t>
+          <t>-36.72639152473469,175.7065703782144</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -29636,7 +29636,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>-36.72641018704232,175.70657422570096</t>
+          <t>-36.72640618797642,175.70657340123938</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -29698,7 +29698,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>-36.726484391929695,175.7065895240617</t>
+          <t>-36.726479059842106,175.70658842477718</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -29760,7 +29760,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>-36.72653051448641,175.70659903288023</t>
+          <t>-36.726537623936245,175.70660049859524</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -29822,7 +29822,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>-36.726415607998305,175.70657534330462</t>
+          <t>-36.72641169780056,175.70657453716427</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -29884,7 +29884,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>-36.72650643122481,175.70659406777295</t>
+          <t>-36.726509985949804,175.70659480062992</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -29946,7 +29946,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>-36.72643898031646,175.70658016182733</t>
+          <t>-36.72643551445941,175.70657944729336</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -30008,7 +30008,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>-36.72645311034891,175.70658307492826</t>
+          <t>-36.72644644523928,175.7065817008239</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -30062,7 +30062,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>-36.726307810951624,175.70655311951518</t>
+          <t>-36.726310743600166,175.70655372411858</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -30182,7 +30182,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>-36.726553975670726,175.70660386974095</t>
+          <t>-36.72655530869257,175.70660414456268</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -30244,7 +30244,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>-36.72638841435007,175.70656973696686</t>
+          <t>-36.7263879700094,175.70656964536005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -30306,7 +30306,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>-36.72635020105261,175.7065618587874</t>
+          <t>-36.72635526653629,175.70656290310373</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -30406,7 +30406,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>-36.726494167423546,175.70659153941713</t>
+          <t>-36.726491323643515,175.70659095313187</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -30468,7 +30468,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>-36.726456753942166,175.70658382610543</t>
+          <t>-36.72645959772226,175.7065844123901</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -30530,7 +30530,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>-36.726393302097335,175.7065707446416</t>
+          <t>-36.72639303549293,175.7065706896775</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -30580,7 +30580,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>-36.726441735228455,175.70658072979035</t>
+          <t>-36.72644893354689,175.70658221382283</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -30642,7 +30642,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>-36.726409653833535,175.70657411577275</t>
+          <t>-36.726405654767646,175.70657329131117</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -30704,7 +30704,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>-36.72639170247096,175.7065704148571</t>
+          <t>-36.7263909915259,175.70657026828624</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -30746,7 +30746,7 @@
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr">
         <is>
-          <t>-36.72661387278345,175.7066162184082</t>
+          <t>-36.726614139387806,175.70661627337265</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -30808,7 +30808,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>-36.72644999996443,175.70658243367953</t>
+          <t>-36.7264434237229,175.7065810778967</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -30862,7 +30862,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>-36.726476038325806,175.70658780184934</t>
+          <t>-36.72647070623819,175.7065867025651</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -30920,7 +30920,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>-36.72640618797642,175.70657340123938</t>
+          <t>-36.72640289985556,175.7065727233488</t>
         </is>
       </c>
       <c r="H193" t="inlineStr"/>
@@ -30966,7 +30966,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>-36.726428760481575,175.70657805486832</t>
+          <t>-36.726430804448555,175.7065784762601</t>
         </is>
       </c>
       <c r="H194" t="inlineStr"/>
@@ -31012,7 +31012,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>-36.72631616455654,175.7065548417189</t>
+          <t>-36.7263150981389,175.7065546218631</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -31074,7 +31074,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>-36.726410009306065,175.70657418905822</t>
+          <t>-36.726404854954446,175.70657312641887</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -31116,7 +31116,7 @@
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr">
         <is>
-          <t>-36.72640760986651,175.70657369438126</t>
+          <t>-36.72641267534999,175.70657473869935</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -31224,7 +31224,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>-36.72633953687639,175.70655966022736</t>
+          <t>-36.726344780096376,175.70656074118594</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -31332,7 +31332,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>-36.726303634149154,175.7065522584135</t>
+          <t>-36.726311276808985,175.70655383404647</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -31394,7 +31394,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>-36.726284705235656,175.70654835597523</t>
+          <t>-36.72629199242305,175.7065498583221</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -31456,7 +31456,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>-36.72646608509557,175.7065857498522</t>
+          <t>-36.72646279697485,175.70658507196043</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -31510,7 +31510,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>-36.72639170247096,175.7065704148571</t>
+          <t>-36.7263901917127,175.706570103394</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -31572,7 +31572,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>-36.72626968652008,175.70654525967603</t>
+          <t>-36.7262708418059,175.70654549785286</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -31634,7 +31634,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>-36.72641196440493,175.70657459212836</t>
+          <t>-36.72640681005335,175.70657352948896</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -31696,7 +31696,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>-36.7263174975786,175.7065551165387</t>
+          <t>-36.726324429293264,175.70655654560176</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -31758,7 +31758,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>-36.72633340497501,175.7065583960556</t>
+          <t>-36.726329139304475,175.7065575166319</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -31820,7 +31820,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>-36.72634104763468,175.70655997168998</t>
+          <t>-36.72633580441469,175.7065588907315</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -31882,7 +31882,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>-36.72632478476581,175.70655661888702</t>
+          <t>-36.726324962502076,175.70655665552968</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -31944,7 +31944,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>-36.726411253459894,175.7065744455574</t>
+          <t>-36.726414630448865,175.70657514176955</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -32044,7 +32044,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>-36.726343713678745,175.70656052132995</t>
+          <t>-36.726347268404155,175.70656125418333</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -32106,7 +32106,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>-36.72646333018362,175.7065851818888</t>
+          <t>-36.7264691066119,175.70658637277984</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -32168,7 +32168,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>-36.726440046734005,175.70658038168398</t>
+          <t>-36.726442357305366,175.70658085804004</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -32230,7 +32230,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>-36.72652811504709,175.7065985382015</t>
+          <t>-36.72653620204628,175.70660020545222</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -32292,7 +32292,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>-36.72642218423995,175.70657669908633</t>
+          <t>-36.72641818517409,175.70657587462446</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -32354,7 +32354,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>-36.72637588394335,175.70656715365584</t>
+          <t>-36.72637757243787,175.70656750176153</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -32412,7 +32412,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>-36.726300612632464,175.70655163548892</t>
+          <t>-36.72629705790694,175.7065509026366</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -32474,7 +32474,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>-36.7264691066119,175.70658637277984</t>
+          <t>-36.72647461643578,175.70658750870686</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -32536,7 +32536,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>-36.72643524785503,175.7065793923292</t>
+          <t>-36.72643791389891,175.70657994197072</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -32598,7 +32598,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>-36.726497899884805,175.70659230891664</t>
+          <t>-36.72650127687356,175.70659300513057</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -32698,7 +32698,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>-36.72641205327308,175.70657461044976</t>
+          <t>-36.72640627684456,175.70657341956075</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -32760,7 +32760,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>-36.72651798408098,175.7065964495583</t>
+          <t>-36.72652331616841,175.70659754884412</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -32822,7 +32822,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>-36.72653140316764,175.7065992160946</t>
+          <t>-36.72653789054061,175.70660055355955</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -32884,7 +32884,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>-36.72644084654717,175.70658054657648</t>
+          <t>-36.7264366697451,175.70657968547133</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -32946,7 +32946,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>-36.7264158746027,175.70657539826877</t>
+          <t>-36.72641649667961,175.70657552651838</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -33008,7 +33008,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>-36.726473550018255,175.70658728885</t>
+          <t>-36.726472927941366,175.70658716060018</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -33100,7 +33100,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>-36.72658534611734,175.70661033721524</t>
+          <t>-36.72658090271135,175.70660942114202</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -33162,7 +33162,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>-36.726570949481875,175.70660736913845</t>
+          <t>-36.7265762815691,175.70660846842603</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -33224,7 +33224,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>-36.7265304256183,175.7065990145588</t>
+          <t>-36.72652571560776,175.70659804352277</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -33286,7 +33286,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>-36.72646244150236,175.70658499867483</t>
+          <t>-36.72646164168919,175.70658483378224</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -33348,7 +33348,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>-36.72637801677854,175.7065675933683</t>
+          <t>-36.72637952753679,175.7065679048313</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -33410,7 +33410,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>-36.72635340030545,175.70656251835558</t>
+          <t>-36.72635100086582,175.70656202367945</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -33472,7 +33472,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>-36.726372240349875,175.7065664024805</t>
+          <t>-36.72637312903121,175.706566585694</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -33534,7 +33534,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>-36.7263819269764,175.70656839950786</t>
+          <t>-36.726384148679706,175.70656885754173</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -33596,7 +33596,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>-36.72636895222894,175.70656572459063</t>
+          <t>-36.72637428431694,175.70656682387155</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -33658,7 +33658,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>-36.72646226376609,175.70658496203203</t>
+          <t>-36.726457820359705,175.7065840459622</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -33720,7 +33720,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>-36.72645542092023,175.70658355128452</t>
+          <t>-36.7264523994039,175.70658292835714</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -33770,7 +33770,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>-36.72642867161344,175.70657803654694</t>
+          <t>-36.72643427030561,175.706579190794</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -33890,7 +33890,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>-36.72639827871272,175.70657177063785</t>
+          <t>-36.726399611734706,175.7065720454583</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -33952,7 +33952,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>-36.72639001397644,175.70657006675128</t>
+          <t>-36.726393835306126,175.70657085456978</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -34014,7 +34014,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>-36.72644120201969,175.706580619862</t>
+          <t>-36.72644662297555,175.7065817374667</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -34076,7 +34076,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>-36.72642209537183,175.70657668076495</t>
+          <t>-36.726417207624664,175.70657567308933</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -34138,7 +34138,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>-36.72651087463104,175.70659498384416</t>
+          <t>-36.72651309633415,175.70659544187978</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -34180,7 +34180,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>-36.726444845612974,175.7065813710389</t>
+          <t>-36.72644546768988,175.70658149928863</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -34264,7 +34264,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>-36.72656250701039,175.7066056286002</t>
+          <t>-36.72655699718687,175.7066044926702</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -34326,7 +34326,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>-36.7265343358157,175.706599820702</t>
+          <t>-36.72652873712394,175.70659866645153</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -34388,7 +34388,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>-36.72652144993781,175.70659716409406</t>
+          <t>-36.72652633768462,175.7065981717728</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -34450,7 +34450,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>-36.726650219843165,175.70662371189806</t>
+          <t>-36.726655285325734,175.70662475622368</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -34512,7 +34512,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>-36.72641756309718,175.70657574637485</t>
+          <t>-36.72641231987747,175.70657466541388</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -34574,7 +34574,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>-36.72638450415223,175.70656893082713</t>
+          <t>-36.72638059395439,175.70656812468752</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -34636,7 +34636,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>-36.726405654767646,175.70657329131117</t>
+          <t>-36.726402100042385,175.70657255845651</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -34698,7 +34698,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>-36.72634246952486,175.7065602648313</t>
+          <t>-36.72634575764586,175.70656094272064</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -34760,7 +34760,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>-36.72632194098545,175.7065560326047</t>
+          <t>-36.72632478476581,175.70655661888702</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -34822,7 +34822,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>-36.72640085588854,175.70657230195744</t>
+          <t>-36.72640032267975,175.70657219202923</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -34884,7 +34884,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>-36.726300701500605,175.70655165381027</t>
+          <t>-36.72630567811633,175.70655267980368</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -34946,7 +34946,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>-36.726292081291184,175.7065498766434</t>
+          <t>-36.72628968185145,175.7065493819682</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -35008,7 +35008,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>-36.726379616404934,175.70656792315265</t>
+          <t>-36.72637650602027,175.7065672819053</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -35062,7 +35062,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>-36.7264375584264,175.70657986868517</t>
+          <t>-36.72643889144833,175.70658014350596</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -35116,7 +35116,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>-36.726328783831946,175.7065574433466</t>
+          <t>-36.72633349384314,175.70655841437693</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -35162,7 +35162,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>-36.726493900819165,175.7065914844529</t>
+          <t>-36.726487946654736,175.70659025691816</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -35224,7 +35224,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>-36.726459242249746,175.70658433910452</t>
+          <t>-36.72646466320553,175.7065854567098</t>
         </is>
       </c>
       <c r="H267" t="inlineStr"/>
@@ -35266,7 +35266,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>-36.726492123456644,175.7065911180246</t>
+          <t>-36.7264971889398,175.70659216234532</t>
         </is>
       </c>
       <c r="H268" t="inlineStr"/>
@@ -35312,7 +35312,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>-36.726387881141264,175.70656962703868</t>
+          <t>-36.726389125295114,175.7065698835377</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -35400,7 +35400,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>-36.726390102844576,175.70657008507266</t>
+          <t>-36.726388858690726,175.70656982857363</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -35450,7 +35450,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>-36.726401122492945,175.7065723569215</t>
+          <t>-36.72640227777865,175.70657259509926</t>
         </is>
       </c>
       <c r="H272" t="inlineStr"/>
@@ -35496,7 +35496,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>-36.7264390691846,175.70658018014873</t>
+          <t>-36.72643640314071,175.70657963050718</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -35558,7 +35558,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>-36.7264366697451,175.70657968547133</t>
+          <t>-36.72643089331669,175.70657849458146</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -35620,7 +35620,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>-36.72632709533736,175.70655709524144</t>
+          <t>-36.726334826865184,175.70655868919684</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -35682,7 +35682,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>-36.7263360710191,175.70655894569546</t>
+          <t>-36.72633784838182,175.70655931212204</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -35744,7 +35744,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>-36.72645008883256,175.70658245200093</t>
+          <t>-36.726446089766775,175.70658162753836</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -35806,7 +35806,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>-36.72642565009702,175.70657741362007</t>
+          <t>-36.72643311501992,175.706578952616</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -35860,7 +35860,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>-36.72649941064293,175.70659262038075</t>
+          <t>-36.72649701120354,175.70659212570246</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -35922,7 +35922,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>-36.726395879273156,175.70657127596107</t>
+          <t>-36.72639676795448,175.70657145917468</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -35984,7 +35984,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>-36.72632949477703,175.70655758991722</t>
+          <t>-36.72632993911771,175.70655768152386</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -36046,7 +36046,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>-36.726455776392754,175.7065836245701</t>
+          <t>-36.72644999996443,175.70658243367953</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -36108,7 +36108,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>-36.726379883009336,175.70656797811668</t>
+          <t>-36.72638565943796,175.70656916900475</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -36170,7 +36170,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>-36.726414363844476,175.7065750868054</t>
+          <t>-36.726418540646605,175.70657594790995</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -36232,7 +36232,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>-36.7264336482287,175.7065790625443</t>
+          <t>-36.726429649162874,175.70657823808213</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -36294,7 +36294,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>-36.7263771280972,175.70656741015478</t>
+          <t>-36.726376683756534,175.70656731854803</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -36356,7 +36356,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>-36.726373040163075,175.70656656737265</t>
+          <t>-36.72637188487734,175.7065663291951</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -36418,7 +36418,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>-36.726370107514676,175.70656596276814</t>
+          <t>-36.72637277355867,175.7065665124086</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -36480,7 +36480,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>-36.72642218423995,175.70657669908633</t>
+          <t>-36.72641907385539,175.7065760578382</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -36542,7 +36542,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>-36.7264109868555,175.70657439059332</t>
+          <t>-36.726409653833535,175.70657411577275</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -36604,7 +36604,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>-36.726380416218134,175.70656808804483</t>
+          <t>-36.72638112716319,175.70656823461564</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -36666,7 +36666,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>-36.726485458347206,175.70658974391864</t>
+          <t>-36.726485102874705,175.70658967063298</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -36728,7 +36728,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>-36.72640938722913,175.70657406080863</t>
+          <t>-36.726409209492886,175.70657402416592</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -36790,7 +36790,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>-36.72638948076765,175.70656995682313</t>
+          <t>-36.72639143586656,175.70657035989302</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -36852,7 +36852,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>-36.7263973900314,175.70657158742424</t>
+          <t>-36.72639516832811,175.70657112939017</t>
         </is>
       </c>
       <c r="H295" t="inlineStr"/>
@@ -36898,7 +36898,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>-36.726383882075304,175.70656880257764</t>
+          <t>-36.726388503218196,175.70656975528817</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -36960,7 +36960,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>-36.72642422820695,175.70657712047802</t>
+          <t>-36.726418274042224,175.70657589294584</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -37002,7 +37002,7 @@
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr">
         <is>
-          <t>-36.726420229141084,175.70657629601607</t>
+          <t>-36.726422628580615,175.70657679069322</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -37102,7 +37102,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>-36.726339448008254,175.706559641906</t>
+          <t>-36.72633589328282,175.7065589090528</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -37160,7 +37160,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>-36.72641454158073,175.70657512344815</t>
+          <t>-36.726410275910446,175.70657424402236</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -37222,7 +37222,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>-36.72625031326542,175.7065412656353</t>
+          <t>-36.7262587557388,175.70654300615735</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -37272,7 +37272,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>-36.72632398495258,175.70655645399512</t>
+          <t>-36.72631980815016,175.706555592893</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -37334,7 +37334,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>-36.72647586058955,175.70658776520654</t>
+          <t>-36.726484391929695,175.7065895240617</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -37396,7 +37396,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>-36.72643542559128,175.70657942897196</t>
+          <t>-36.726431248789204,175.70657856786698</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -37458,7 +37458,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>-36.726537446200005,175.70660046195238</t>
+          <t>-36.72654011224368,175.70660101159558</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -37520,7 +37520,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>-36.72638423754783,175.70656887586307</t>
+          <t>-36.726384059811565,175.70656883922035</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -37582,7 +37582,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>-36.726408854020356,175.70657395088043</t>
+          <t>-36.72641134232803,175.70657446387878</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -37644,7 +37644,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>-36.72634469122824,175.70656072286462</t>
+          <t>-36.72634780161297,175.70656136411134</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -37706,7 +37706,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>-36.72640254438304,175.70657265006335</t>
+          <t>-36.72640032267975,175.70657219202923</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -37810,7 +37810,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>-36.72632727307363,175.7065571318841</t>
+          <t>-36.726332871766196,175.70655828612763</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -37872,7 +37872,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>-36.72642005140483,175.70657625937332</t>
+          <t>-36.72642253971248,175.70657677237187</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -37934,7 +37934,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>-36.726187305751786,175.70652827585832</t>
+          <t>-36.726182684608226,175.7065273231535</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -38026,7 +38026,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>-36.72638325999838,175.70656867432817</t>
+          <t>-36.72638432641597,175.70656889418444</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -38088,7 +38088,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>-36.72639516832811,175.70657112939017</t>
+          <t>-36.726395346064365,175.70657116603292</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -38150,7 +38150,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>-36.72635917673419,175.70656370924272</t>
+          <t>-36.7263545555912,175.706562756533</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -38212,7 +38212,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>-36.726325495710896,175.7065567654576</t>
+          <t>-36.72633251629365,175.70655821284234</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -38274,7 +38274,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>-36.72637775017413,175.70656753840424</t>
+          <t>-36.726373040163075,175.70656656737265</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -38374,7 +38374,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>-36.726366019580524,175.70656511998618</t>
+          <t>-36.72637055185534,175.7065660543749</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -38436,7 +38436,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>-36.726370996196,175.70656614598164</t>
+          <t>-36.72637588394335,175.70656715365584</t>
         </is>
       </c>
       <c r="H323" t="inlineStr"/>
@@ -38482,7 +38482,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>-36.72642671651459,175.7065776334766</t>
+          <t>-36.726429293690344,175.7065781647966</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -38570,7 +38570,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>-36.72639410191052,175.70657090953384</t>
+          <t>-36.72638948076765,175.70656995682313</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -38632,7 +38632,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>-36.726386636987414,175.70656937053968</t>
+          <t>-36.726384148679706,175.70656885754173</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -38694,7 +38694,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>-36.726404677218206,175.70657308977613</t>
+          <t>-36.72640067815228,175.7065722653147</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -38756,7 +38756,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>-36.726489013072246,175.70659047677512</t>
+          <t>-36.72648456966594,175.70658956070451</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -38818,7 +38818,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>-36.72646866227127,175.70658628117283</t>
+          <t>-36.72646617396369,175.7065857681736</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -38880,7 +38880,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>-36.72632176324916,175.70655599596208</t>
+          <t>-36.72632460702953,175.7065565822444</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -38942,7 +38942,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>-36.72639463511932,175.70657101946202</t>
+          <t>-36.7263968568226,175.70657147749606</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -38992,7 +38992,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>-36.72641134232803,175.70657446387878</t>
+          <t>-36.726410453646714,175.7065742806651</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -39054,7 +39054,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>-36.72638841435007,175.70656973696686</t>
+          <t>-36.72638903642699,175.70656986521635</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
@@ -39116,7 +39116,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>-36.72636521976731,175.70656495509408</t>
+          <t>-36.7263691299652,175.70656576123332</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
@@ -39236,7 +39236,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>-36.726412408745595,175.70657468373523</t>
+          <t>-36.726420851218,175.7065764242657</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -39298,7 +39298,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>-36.72643213747049,175.7065787510808</t>
+          <t>-36.72642902708596,175.70657810983246</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -39360,7 +39360,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>-36.72641178666868,175.70657455548564</t>
+          <t>-36.726407343262146,175.70657363941717</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
@@ -39422,7 +39422,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>-36.7263781945148,175.706567630011</t>
+          <t>-36.726380771690664,175.70656816133024</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
@@ -39484,7 +39484,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>-36.72633615988723,175.70655896401678</t>
+          <t>-36.726338114986206,175.70655936708604</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
@@ -39538,7 +39538,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>-36.72644982222817,175.70658239703673</t>
+          <t>-36.726445023349235,175.70658140768168</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
@@ -39600,7 +39600,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>-36.726344780096376,175.70656074118594</t>
+          <t>-36.72635055652515,175.70656193207276</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
@@ -39662,7 +39662,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>-36.72635953220672,175.7065637825281</t>
+          <t>-36.726364419954116,175.70656479020198</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
@@ -39724,7 +39724,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>-36.72637748356974,175.70656748344018</t>
+          <t>-36.726379083196136,175.70656781322452</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -39774,7 +39774,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>-36.72641614120709,175.70657545323286</t>
+          <t>-36.72641623007521,175.70657547155423</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
@@ -39828,7 +39828,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>-36.72642867161344,175.70657803654694</t>
+          <t>-36.72643018237165,175.7065783480104</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
@@ -39890,7 +39890,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>-36.726451421854485,175.70658272682178</t>
+          <t>-36.72644662297555,175.7065817374667</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
@@ -39990,7 +39990,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>-36.726378461119204,175.70656768497506</t>
+          <t>-36.72638308226211,175.70656863768545</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -40044,7 +40044,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>-36.726389391899524,175.7065699385018</t>
+          <t>-36.72639196907535,175.7065704698212</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -40106,7 +40106,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>-36.72640592137203,175.7065733462753</t>
+          <t>-36.726402988723706,175.7065727416702</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
@@ -40168,7 +40168,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>-36.726431248789204,175.70657856786698</t>
+          <t>-36.72642742745963,175.70657778004764</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -40230,7 +40230,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>-36.72634851255805,175.70656151068204</t>
+          <t>-36.72635517766815,175.7065628847824</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
@@ -40292,7 +40292,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>-36.72642209537183,175.70657668076495</t>
+          <t>-36.72641747422904,175.70657572805348</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
@@ -40354,7 +40354,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>-36.72632798401872,175.7065572784547</t>
+          <t>-36.726332160821116,175.70655813955702</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -40416,7 +40416,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>-36.72628701580728,175.7065488323291</t>
+          <t>-36.72629039279656,175.70654952853863</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -40478,7 +40478,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>-36.726443779195435,175.70658115118223</t>
+          <t>-36.726446356371156,175.7065816825025</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
@@ -40602,7 +40602,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>-36.72638379320717,175.7065687842563</t>
+          <t>-36.726380771690664,175.70656816133024</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
@@ -40664,7 +40664,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>-36.726364686558505,175.706564845166</t>
+          <t>-36.72636930770146,175.706565797876</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
@@ -40710,7 +40710,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>-36.726390458317105,175.70657015835806</t>
+          <t>-36.726385748306086,175.70656918732612</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
@@ -40772,7 +40772,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>-36.726395257196245,175.70657114771154</t>
+          <t>-36.726397478899536,175.70657160574558</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
@@ -40834,7 +40834,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>-36.72647026189756,175.70658661095806</t>
+          <t>-36.726471506051325,175.7065868674577</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
@@ -40884,7 +40884,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>-36.72643711408575,175.70657977707825</t>
+          <t>-36.7264396912615,175.70658030839843</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
@@ -40946,7 +40946,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>-36.72651993917972,175.70659685262976</t>
+          <t>-36.72652571560776,175.70659804352277</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
@@ -41008,7 +41008,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>-36.72640503269071,175.70657316306162</t>
+          <t>-36.72639987833909,175.70657210042242</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
@@ -41070,7 +41070,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>-36.72645684281029,175.70658384442683</t>
+          <t>-36.726450355436945,175.7065825069651</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
@@ -41132,7 +41132,7 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>-36.72636210938263,175.70656431384703</t>
+          <t>-36.72636059862434,175.70656400238417</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
@@ -41194,7 +41194,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>-36.726378461119204,175.70656768497506</t>
+          <t>-36.72638308226211,175.70656863768545</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
@@ -41256,7 +41256,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>-36.72639090265776,175.70657024996487</t>
+          <t>-36.72639339096547,175.70657076296294</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
@@ -41314,7 +41314,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>-36.72643978012963,175.7065803267198</t>
+          <t>-36.7264366697451,175.70657968547133</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
